--- a/Requisitos-Tareas.xlsx
+++ b/Requisitos-Tareas.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="106">
   <si>
     <t xml:space="preserve">ID REQUISITO</t>
   </si>
@@ -366,6 +366,18 @@
   </si>
   <si>
     <t xml:space="preserve">Joaquín</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requisito: Mapa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver mapa en aplicación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Añadir ubicaciones en el mapa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joaquín/Serena</t>
   </si>
 </sst>
 </file>
@@ -532,7 +544,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -605,6 +617,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -661,23 +677,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -772,11 +796,11 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="58.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="58.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="56.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.14"/>
   </cols>
@@ -1109,7 +1133,7 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1168,8 +1192,8 @@
         <v>71</v>
       </c>
       <c r="M2" s="13" t="n">
-        <f aca="false">SUM(H2,H12,H8,H20,H23)</f>
-        <v>49.5</v>
+        <f aca="false">SUM(H2,H12,H8,H20,H23,H25)</f>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1188,6 +1212,7 @@
       <c r="F3" s="17" t="s">
         <v>74</v>
       </c>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
@@ -1219,7 +1244,7 @@
       <c r="D5" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="19" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1236,36 +1261,36 @@
       <c r="D6" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="19" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="20" t="n">
+      <c r="C7" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="21" t="n">
+      <c r="D7" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="23" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="0" t="s">
         <v>69</v>
       </c>
@@ -1282,65 +1307,65 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="20" t="n">
+      <c r="C9" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="21" t="n">
+      <c r="D9" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="23" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="20" t="n">
+      <c r="C10" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="D10" s="21" t="n">
+      <c r="D10" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="23" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="20" t="n">
+      <c r="C11" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="D11" s="21" t="n">
+      <c r="D11" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="23" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="0" t="s">
         <v>69</v>
       </c>
@@ -1357,131 +1382,131 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="25" t="n">
+      <c r="C13" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="26" t="n">
+      <c r="D13" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="25" t="n">
+      <c r="C14" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="26" t="n">
+      <c r="D14" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="25" t="n">
+      <c r="C15" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D15" s="26" t="n">
+      <c r="D15" s="27" t="n">
         <v>1.5</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="25" t="n">
+      <c r="C16" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="26" t="n">
+      <c r="D16" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="25" t="n">
+      <c r="C17" s="26" t="n">
         <v>0.5</v>
       </c>
-      <c r="D17" s="26" t="n">
+      <c r="D17" s="27" t="n">
         <v>0.5</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="18" t="s">
+      <c r="E17" s="28"/>
+      <c r="F17" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="20" t="n">
+      <c r="C18" s="21" t="n">
         <v>1.5</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="F18" s="22" t="s">
+      <c r="D18" s="22"/>
+      <c r="F18" s="23" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="20" t="n">
+      <c r="C19" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="22" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="23" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
       <c r="G20" s="0" t="s">
         <v>69</v>
       </c>
@@ -1498,22 +1523,22 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="29" t="n">
+      <c r="C21" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="D21" s="30" t="n">
+      <c r="D21" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="J21" s="32"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="s">
@@ -1528,19 +1553,19 @@
       <c r="D22" s="16" t="n">
         <v>8.5</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
       <c r="G23" s="0" t="s">
         <v>69</v>
       </c>
@@ -1550,198 +1575,246 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="25" t="n">
+      <c r="C24" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="D24" s="26" t="n">
+      <c r="D24" s="27" t="n">
         <v>3.5</v>
       </c>
       <c r="F24" s="33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <f aca="false">SUM(D26:D27)</f>
+        <v>1.5</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <f aca="false">SUM(C26:C27)</f>
+        <v>3</v>
+      </c>
+    </row>
     <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
+      <c r="A26" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="37"/>
+      <c r="A27" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="37"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
     </row>
     <row r="29" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="34"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="37"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
     </row>
     <row r="30" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="37"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
     </row>
     <row r="31" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="34"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="37"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="40"/>
     </row>
     <row r="32" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="37"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="40"/>
     </row>
     <row r="33" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="34"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="37"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="40"/>
     </row>
     <row r="34" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C34" s="38"/>
-      <c r="D34" s="37"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="40"/>
     </row>
     <row r="35" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C35" s="38"/>
-      <c r="D35" s="37"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="40"/>
     </row>
     <row r="36" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C36" s="38"/>
-      <c r="D36" s="37"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="40"/>
     </row>
     <row r="37" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C37" s="38"/>
-      <c r="D37" s="37"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="40"/>
     </row>
     <row r="38" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C38" s="38"/>
-      <c r="D38" s="37"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="40"/>
     </row>
     <row r="39" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C39" s="38"/>
-      <c r="D39" s="37"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="40"/>
     </row>
     <row r="40" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C40" s="38"/>
-      <c r="D40" s="37"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="40"/>
     </row>
     <row r="41" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C41" s="38"/>
-      <c r="D41" s="37"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="40"/>
     </row>
     <row r="42" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C42" s="38"/>
-      <c r="D42" s="37"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="40"/>
     </row>
     <row r="43" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C43" s="38"/>
-      <c r="D43" s="37"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="40"/>
     </row>
     <row r="44" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C44" s="38"/>
-      <c r="D44" s="37"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="40"/>
     </row>
     <row r="45" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C45" s="38"/>
-      <c r="D45" s="37"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="40"/>
     </row>
     <row r="46" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C46" s="38"/>
-      <c r="D46" s="37"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="40"/>
     </row>
     <row r="47" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C47" s="38"/>
-      <c r="D47" s="37"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="40"/>
     </row>
     <row r="48" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C48" s="38"/>
-      <c r="D48" s="37"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="40"/>
     </row>
     <row r="49" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C49" s="38"/>
-      <c r="D49" s="37"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="40"/>
     </row>
     <row r="50" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C50" s="38"/>
-      <c r="D50" s="37"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="40"/>
     </row>
     <row r="51" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C51" s="38"/>
-      <c r="D51" s="37"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="40"/>
     </row>
     <row r="52" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C52" s="38"/>
-      <c r="D52" s="37"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="40"/>
     </row>
     <row r="53" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C53" s="38"/>
-      <c r="D53" s="37"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="40"/>
     </row>
     <row r="54" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C54" s="38"/>
-      <c r="D54" s="37"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="40"/>
     </row>
     <row r="55" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C55" s="38"/>
-      <c r="D55" s="37"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="40"/>
     </row>
     <row r="56" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C56" s="38"/>
-      <c r="D56" s="37"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="40"/>
     </row>
     <row r="57" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C57" s="38"/>
-      <c r="D57" s="37"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="40"/>
     </row>
     <row r="58" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C58" s="38"/>
-      <c r="D58" s="37"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="40"/>
     </row>
     <row r="59" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C59" s="38"/>
-      <c r="D59" s="37"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="40"/>
     </row>
     <row r="60" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C60" s="38"/>
-      <c r="D60" s="37"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="40"/>
     </row>
     <row r="61" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C61" s="38"/>
-      <c r="D61" s="37"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="40"/>
     </row>
     <row r="62" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C62" s="38"/>
-      <c r="D62" s="37"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="40"/>
     </row>
     <row r="63" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C63" s="38"/>
-      <c r="D63" s="37"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="40"/>
     </row>
     <row r="64" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C64" s="38"/>
-      <c r="D64" s="37"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="40"/>
     </row>
     <row r="65" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C65" s="38"/>
-      <c r="D65" s="37"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A25:F25"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Requisitos-Tareas.xlsx
+++ b/Requisitos-Tareas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seren\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Otros ordenadores\Mi PC\PRACTICA\evently\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B46B148-2CF7-43AA-9DD1-E40FE069CEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61DE0E0-84B6-4F3D-A5AF-126AD6D8EA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,6 @@
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -35,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="109">
   <si>
     <t>ID REQUISITO</t>
   </si>
@@ -395,6 +386,12 @@
   </si>
   <si>
     <t>Información sobre mapa</t>
+  </si>
+  <si>
+    <t>Funcion ubi a coordenadas</t>
+  </si>
+  <si>
+    <t>Alex</t>
   </si>
 </sst>
 </file>
@@ -645,7 +642,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1029,7 +1048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -1365,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,9 +1920,21 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
+      <c r="A29" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="37">
+        <v>1</v>
+      </c>
+      <c r="D29" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="36"/>
@@ -2067,7 +2098,15 @@
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A23:F23"/>
   </mergeCells>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="No terminado">
+      <formula>NOT(ISERROR(SEARCH("No terminado",F1)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Terminado">
+      <formula>LEFT(F1,LEN("Terminado"))="Terminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Requisitos-Tareas.xlsx
+++ b/Requisitos-Tareas.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="112">
   <si>
     <t xml:space="preserve">ID REQUISITO</t>
   </si>
@@ -390,6 +390,12 @@
   </si>
   <si>
     <t xml:space="preserve">IG Unificada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funcionalidad IG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos</t>
   </si>
 </sst>
 </file>
@@ -556,7 +562,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -730,6 +736,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -836,11 +850,11 @@
       <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="58.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="58.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="56.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.14"/>
   </cols>
@@ -1176,8 +1190,8 @@
   </sheetPr>
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1223,7 +1237,7 @@
       </c>
       <c r="H2" s="0" t="n">
         <f aca="false">D3+D4+D5+D6+D31</f>
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>70</v>
@@ -1237,7 +1251,7 @@
       </c>
       <c r="M2" s="15" t="n">
         <f aca="false">SUM(H2,H12,H8,H20,H23,H25,H30)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1733,37 +1747,47 @@
       </c>
       <c r="H30" s="0" t="n">
         <f aca="false">SUM(D31:D33)</f>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I30" s="0" t="s">
         <v>70</v>
       </c>
       <c r="J30" s="0" t="n">
         <f aca="false">SUM(C31:C33)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="17" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="23" t="n">
-        <v>5</v>
-      </c>
-      <c r="D31" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="F31" s="25" t="s">
+      <c r="D31" s="18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="31" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" s="45"/>
+      <c r="F32" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="35"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43"/>
     </row>
     <row r="33" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="35"/>
@@ -1772,135 +1796,135 @@
     </row>
     <row r="34" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="35"/>
-      <c r="C34" s="44"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="43"/>
     </row>
     <row r="35" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C35" s="44"/>
+      <c r="C35" s="46"/>
       <c r="D35" s="43"/>
     </row>
     <row r="36" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C36" s="44"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="43"/>
     </row>
     <row r="37" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C37" s="44"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="43"/>
     </row>
     <row r="38" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C38" s="44"/>
+      <c r="C38" s="46"/>
       <c r="D38" s="43"/>
     </row>
     <row r="39" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C39" s="44"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="43"/>
     </row>
     <row r="40" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C40" s="44"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="43"/>
     </row>
     <row r="41" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C41" s="44"/>
+      <c r="C41" s="46"/>
       <c r="D41" s="43"/>
     </row>
     <row r="42" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C42" s="44"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="43"/>
     </row>
     <row r="43" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C43" s="44"/>
+      <c r="C43" s="46"/>
       <c r="D43" s="43"/>
     </row>
     <row r="44" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C44" s="44"/>
+      <c r="C44" s="46"/>
       <c r="D44" s="43"/>
     </row>
     <row r="45" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C45" s="44"/>
+      <c r="C45" s="46"/>
       <c r="D45" s="43"/>
     </row>
     <row r="46" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C46" s="44"/>
+      <c r="C46" s="46"/>
       <c r="D46" s="43"/>
     </row>
     <row r="47" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C47" s="44"/>
+      <c r="C47" s="46"/>
       <c r="D47" s="43"/>
     </row>
     <row r="48" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C48" s="44"/>
+      <c r="C48" s="46"/>
       <c r="D48" s="43"/>
     </row>
     <row r="49" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C49" s="44"/>
+      <c r="C49" s="46"/>
       <c r="D49" s="43"/>
     </row>
     <row r="50" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C50" s="44"/>
+      <c r="C50" s="46"/>
       <c r="D50" s="43"/>
     </row>
     <row r="51" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C51" s="44"/>
+      <c r="C51" s="46"/>
       <c r="D51" s="43"/>
     </row>
     <row r="52" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C52" s="44"/>
+      <c r="C52" s="46"/>
       <c r="D52" s="43"/>
     </row>
     <row r="53" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C53" s="44"/>
+      <c r="C53" s="46"/>
       <c r="D53" s="43"/>
     </row>
     <row r="54" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C54" s="44"/>
+      <c r="C54" s="46"/>
       <c r="D54" s="43"/>
     </row>
     <row r="55" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C55" s="44"/>
+      <c r="C55" s="46"/>
       <c r="D55" s="43"/>
     </row>
     <row r="56" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C56" s="44"/>
+      <c r="C56" s="46"/>
       <c r="D56" s="43"/>
     </row>
     <row r="57" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C57" s="44"/>
+      <c r="C57" s="46"/>
       <c r="D57" s="43"/>
     </row>
     <row r="58" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C58" s="44"/>
+      <c r="C58" s="46"/>
       <c r="D58" s="43"/>
     </row>
     <row r="59" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C59" s="44"/>
+      <c r="C59" s="46"/>
       <c r="D59" s="43"/>
     </row>
     <row r="60" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C60" s="44"/>
+      <c r="C60" s="46"/>
       <c r="D60" s="43"/>
     </row>
     <row r="61" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C61" s="44"/>
+      <c r="C61" s="46"/>
       <c r="D61" s="43"/>
     </row>
     <row r="62" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C62" s="44"/>
+      <c r="C62" s="46"/>
       <c r="D62" s="43"/>
     </row>
     <row r="63" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C63" s="44"/>
+      <c r="C63" s="46"/>
       <c r="D63" s="43"/>
     </row>
     <row r="64" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C64" s="44"/>
+      <c r="C64" s="46"/>
       <c r="D64" s="43"/>
     </row>
     <row r="65" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C65" s="44"/>
+      <c r="C65" s="46"/>
       <c r="D65" s="43"/>
     </row>
     <row r="66" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C66" s="44"/>
+      <c r="C66" s="46"/>
       <c r="D66" s="43"/>
     </row>
   </sheetData>

--- a/Requisitos-Tareas.xlsx
+++ b/Requisitos-Tareas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seren\evently\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E1621D-E421-4684-BBA0-C17CE94BDF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A18D37E-FDE6-420B-98F1-8E1CA970DFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="122">
   <si>
     <t>ID REQUISITO</t>
   </si>
@@ -437,12 +437,18 @@
   </si>
   <si>
     <t>TDD inicio sesión campos vacíos</t>
+  </si>
+  <si>
+    <t>TDD inicio sesión contraseña incorrecta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -572,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -680,15 +686,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -696,14 +693,26 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,7 +1101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -1152,13 +1161,13 @@
       <c r="E2">
         <v>2</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="47">
+      <c r="I2" s="44">
         <v>44841</v>
       </c>
     </row>
@@ -1178,13 +1187,13 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="I3" s="47">
+      <c r="I3" s="44">
         <v>44841</v>
       </c>
     </row>
@@ -1204,13 +1213,13 @@
       <c r="E4">
         <v>13</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="44">
         <v>44848</v>
       </c>
     </row>
@@ -1227,10 +1236,10 @@
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="46"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -1245,10 +1254,10 @@
       <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="H6" s="46"/>
+      <c r="H6" s="43"/>
     </row>
     <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1266,13 +1275,13 @@
       <c r="E7">
         <v>3</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="I7" s="47">
+      <c r="I7" s="44">
         <v>44841</v>
       </c>
     </row>
@@ -1289,10 +1298,10 @@
       <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="43" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1309,10 +1318,10 @@
       <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="H9" s="46"/>
+      <c r="H9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1330,13 +1339,13 @@
       <c r="E10">
         <v>2</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="I10" s="47">
+      <c r="I10" s="44">
         <v>44841</v>
       </c>
     </row>
@@ -1356,13 +1365,13 @@
       <c r="E11">
         <v>8</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="H11" s="46" t="s">
+      <c r="H11" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="44">
         <v>44841</v>
       </c>
     </row>
@@ -1379,10 +1388,10 @@
       <c r="D12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="46"/>
+      <c r="H12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1397,10 +1406,10 @@
       <c r="D13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="H13" s="46"/>
+      <c r="H13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -1415,10 +1424,10 @@
       <c r="D14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="46"/>
+      <c r="H14" s="43"/>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1433,10 +1442,10 @@
       <c r="D15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="46"/>
+      <c r="H15" s="43"/>
     </row>
     <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1454,10 +1463,10 @@
       <c r="E16">
         <v>5</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="46" t="s">
+      <c r="H16" s="43" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1474,10 +1483,10 @@
       <c r="D17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="46"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -1492,10 +1501,10 @@
       <c r="D18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="46"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -1510,10 +1519,10 @@
       <c r="D19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="46"/>
+      <c r="H19" s="43"/>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -1528,10 +1537,10 @@
       <c r="D20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="H20" s="46"/>
+      <c r="H20" s="43"/>
     </row>
     <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1546,46 +1555,46 @@
       <c r="D21" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="46" t="s">
+      <c r="H21" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="I21" s="47">
+      <c r="I21" s="44">
         <v>44848</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G25" s="46"/>
+      <c r="G25" s="43"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="17"/>
-      <c r="G26" s="46"/>
+      <c r="G26" s="43"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G27" s="46"/>
+      <c r="G27" s="43"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G28" s="46"/>
+      <c r="G28" s="43"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G29" s="46"/>
+      <c r="G29" s="43"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G30" s="46"/>
+      <c r="G30" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1595,15 +1604,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:F21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="16" style="5" customWidth="1"/>
     <col min="3" max="3" width="13" style="6" customWidth="1"/>
     <col min="4" max="4" width="13" style="7" customWidth="1"/>
@@ -1631,14 +1640,14 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
       <c r="G2" t="s">
         <v>69</v>
       </c>
@@ -1657,7 +1666,7 @@
         <v>71</v>
       </c>
       <c r="M2" s="12">
-        <f>SUM(H2,H12,H8,H22,H25,H27)</f>
+        <f>SUM(H2,H12,H8,H23,H26,H28)</f>
         <v>52.25</v>
       </c>
     </row>
@@ -1748,14 +1757,14 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
       <c r="G8" t="s">
         <v>69</v>
       </c>
@@ -1823,14 +1832,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
       <c r="G12" t="s">
         <v>69</v>
       </c>
@@ -1853,7 +1862,7 @@
       <c r="B13" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="52">
         <v>1</v>
       </c>
       <c r="D13" s="25">
@@ -1870,7 +1879,7 @@
       <c r="B14" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="52">
         <v>1</v>
       </c>
       <c r="D14" s="25">
@@ -1887,7 +1896,7 @@
       <c r="B15" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="52">
         <v>2</v>
       </c>
       <c r="D15" s="25">
@@ -1904,7 +1913,7 @@
       <c r="B16" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="52">
         <v>1</v>
       </c>
       <c r="D16" s="25">
@@ -1921,7 +1930,7 @@
       <c r="B17" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="52">
         <v>0.5</v>
       </c>
       <c r="D17" s="25">
@@ -1933,249 +1942,262 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="53">
         <v>1</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="46">
         <v>0.5</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="47" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="53">
         <v>1</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="46">
         <v>0.75</v>
       </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="51" t="s">
+      <c r="E19" s="48"/>
+      <c r="F19" s="47" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="53">
         <v>1</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="46">
         <v>0.5</v>
       </c>
       <c r="E20" s="26"/>
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="47" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="53">
         <v>1</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="46">
         <v>0.5</v>
       </c>
       <c r="E21" s="26"/>
-      <c r="F21" s="51" t="s">
+      <c r="F21" s="47" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="46">
+        <v>0.3</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" t="s">
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" t="s">
         <v>69</v>
       </c>
-      <c r="H22">
-        <f>SUM(D23:D24)</f>
+      <c r="H23">
+        <f>SUM(D24:D25)</f>
         <v>11.5</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I23" t="s">
         <v>70</v>
       </c>
-      <c r="J22">
-        <f>SUM(C23:C24)</f>
+      <c r="J23">
+        <f>SUM(C24:C25)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+    <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B24" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C24" s="28">
         <v>2</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D24" s="29">
         <v>3</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F24" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B25" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C25" s="14">
         <v>8</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D25" s="15">
         <v>8.5</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F25" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" t="s">
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" t="s">
         <v>69</v>
       </c>
-      <c r="H25">
-        <f>SUM(D26)</f>
+      <c r="H26">
+        <f>SUM(D27)</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+    <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B27" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C27" s="24">
         <v>0</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D27" s="25">
         <v>3.5</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F27" s="31" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" t="s">
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" t="s">
         <v>69</v>
       </c>
-      <c r="H27">
-        <f>SUM(D29:D30)</f>
+      <c r="H28">
+        <f>SUM(D30:D31)</f>
         <v>1.5</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I28" t="s">
         <v>70</v>
       </c>
-      <c r="J27">
-        <f>SUM(C29:C30)</f>
+      <c r="J28">
+        <f>SUM(C30:C31)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B29" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="40">
+      <c r="C29" s="40">
         <v>3</v>
       </c>
-      <c r="D28" s="40">
+      <c r="D29" s="40">
         <v>4.5</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="34">
-        <v>1</v>
-      </c>
-      <c r="D29" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="F29" s="18" t="s">
+      <c r="E29" s="32"/>
+      <c r="F29" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C30" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="35">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38"/>
+      <c r="A31" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="34">
+        <v>2</v>
+      </c>
+      <c r="D31" s="35">
+        <v>1</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="36"/>
@@ -2199,10 +2221,11 @@
     </row>
     <row r="36" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="36"/>
-      <c r="C36" s="39"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="38"/>
     </row>
     <row r="37" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="36"/>
       <c r="C37" s="39"/>
       <c r="D37" s="38"/>
     </row>
@@ -2330,14 +2353,18 @@
       <c r="C68" s="39"/>
       <c r="D68" s="38"/>
     </row>
+    <row r="69" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="39"/>
+      <c r="D69" s="38"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:F28"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A26:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Requisitos-Tareas.xlsx
+++ b/Requisitos-Tareas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablo/Documents/IngenieriaSoft/even_dysco/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alejandro\Escritorio\evently\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3E5D22-2041-D843-8A7B-4120E64B627A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF91234-188D-4A74-AC31-F6A6C07AFF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,6 @@
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -36,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="121">
   <si>
     <t>ID REQUISITO</t>
   </si>
@@ -384,6 +374,21 @@
   </si>
   <si>
     <t>Agregar casos TDD y modificar metodos para cumplirlos</t>
+  </si>
+  <si>
+    <t>Añadir coordenadas a la base de datos</t>
+  </si>
+  <si>
+    <t>Añadir metodo para generar puntos en el mapa</t>
+  </si>
+  <si>
+    <t>Metodos para devolver elemntos de la BDD</t>
+  </si>
+  <si>
+    <t>TDD Mejora</t>
+  </si>
+  <si>
+    <t>Añadir reseña mejora UI selector de Discotecas</t>
   </si>
 </sst>
 </file>
@@ -519,14 +524,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -655,6 +654,13 @@
     <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,7 +747,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1043,332 +1049,332 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="134" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="155.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="134" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="155.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+    <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+    <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+    <row r="8" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+    <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+    <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+    <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+    <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+    <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+    <row r="16" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+    <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="10"/>
+    <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1378,800 +1384,883 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13" style="11" customWidth="1"/>
-    <col min="4" max="4" width="13" style="12" customWidth="1"/>
-    <col min="5" max="5" width="13" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="13" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="3" customWidth="1"/>
-    <col min="11" max="12" width="12.5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="12.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="8" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="7">
-        <f>D3+D4+D5+D6+D31</f>
+      <c r="H2" s="5">
+        <f>D3+D4+D5+D6+D36</f>
         <v>24</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <f>SUM(C3:C7)</f>
         <v>19</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="7">
-        <f>SUM(H2,H12,H8,H20,H23,H25,H30)</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="M2" s="5">
+        <f>SUM(H2,H12,H8,H20,H23,H25,H35)</f>
+        <v>75.099999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="17">
         <v>3</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="18">
         <v>4.5</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" s="22"/>
-    </row>
-    <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="F3" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="20"/>
+    </row>
+    <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <v>8</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="17">
         <v>3</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="F4" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="17">
         <v>3</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>5</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="F5" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="17">
         <v>5</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <v>3</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="8" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <f>SUM(D9:D11)</f>
         <v>7</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <f>SUM(C9:C11)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="25">
         <v>2</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="26">
         <v>2</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="25">
         <v>2</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="26">
         <v>3</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="25">
         <v>4</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="26">
         <v>2</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="8" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <f>SUM(D13:D19)</f>
         <v>7</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="5">
         <f>SUM(C13:C19)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="29">
         <v>1</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="30">
         <v>1</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="F13" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="29">
         <v>1</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="30">
         <v>2</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
+      <c r="F14" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="29">
         <v>2</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="30">
         <v>1.5</v>
       </c>
-      <c r="F15" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="F15" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="29">
         <v>1</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="30">
         <v>2</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="F16" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="29">
         <v>0.5</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="30">
         <v>0.5</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="25">
         <v>1.5</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="F18" s="29" t="s">
+      <c r="D18" s="26"/>
+      <c r="F18" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
+    <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="25">
         <v>1</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="29" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="8" t="s">
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="33">
-        <f>SUM(D21:D22)</f>
-        <v>11.5</v>
-      </c>
-      <c r="I20" s="8" t="s">
+      <c r="H20" s="31">
+        <f>SUM(D21:D23)</f>
+        <v>12</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J20" s="7">
-        <f>SUM(C21:C22)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
+      <c r="J20" s="5">
+        <f>SUM(C21:C23)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="25">
         <v>2</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="26">
         <v>3</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="J21" s="22"/>
-    </row>
-    <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="33">
+        <v>1</v>
+      </c>
+      <c r="D22" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C23" s="17">
         <v>8</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D23" s="18">
         <v>8.5</v>
       </c>
-      <c r="F22" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="F23" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="31">
+        <f>SUM(D25)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="8" t="s">
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+    </row>
+    <row r="25" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="29">
+        <v>0</v>
+      </c>
+      <c r="D25" s="30">
+        <v>3.5</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="33">
-        <f>SUM(D24)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="30" t="s">
+      <c r="H25" s="31">
+        <f>SUM(D27:D33)</f>
+        <v>12.100000000000001</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" s="5">
+        <f>SUM(C27:C33)</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+    </row>
+    <row r="27" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="17">
+        <v>3</v>
+      </c>
+      <c r="D27" s="18">
+        <v>4.5</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="31">
-        <v>0</v>
-      </c>
-      <c r="D24" s="32">
-        <v>3.5</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="8" t="s">
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="D28" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="17">
+        <v>2</v>
+      </c>
+      <c r="D29" s="18">
+        <v>1</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="33">
+        <v>1</v>
+      </c>
+      <c r="D30" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="33">
+        <v>1</v>
+      </c>
+      <c r="D31" s="31">
+        <v>1.2</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" s="49"/>
+    </row>
+    <row r="32" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="33">
+        <v>2</v>
+      </c>
+      <c r="D32" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="D33" s="31">
+        <v>3</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H25" s="33">
-        <f>SUM(D27:D28)</f>
+      <c r="H35" s="31">
+        <f>SUM(D36:D38)</f>
+        <v>9.5</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J35" s="5">
+        <f>SUM(C36:C38)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="17">
+        <v>5</v>
+      </c>
+      <c r="D36" s="18">
+        <v>8.5</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="43">
+        <v>3</v>
+      </c>
+      <c r="D37" s="44"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="36">
+        <v>1</v>
+      </c>
+      <c r="D38" s="37">
+        <v>1</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="40">
+        <v>1</v>
+      </c>
+      <c r="D39" s="41">
+        <v>2.5</v>
+      </c>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="46">
+        <v>1</v>
+      </c>
+      <c r="D40" s="41">
         <v>1.5</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25" s="7">
-        <f>SUM(C27:C28)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="19">
-        <v>3</v>
-      </c>
-      <c r="D26" s="20">
-        <v>4.5</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="19">
-        <v>1</v>
-      </c>
-      <c r="D27" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="19">
+      <c r="E40" s="38"/>
+      <c r="F40" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="33">
         <v>2</v>
       </c>
-      <c r="D28" s="20">
-        <v>1</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="35">
-        <v>1</v>
-      </c>
-      <c r="D29" s="33">
-        <v>0.4</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H30" s="33">
-        <f>SUM(D31:D33)</f>
-        <v>9.5</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J30" s="7">
-        <f>SUM(C31:C33)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="19">
-        <v>5</v>
-      </c>
-      <c r="D31" s="20">
-        <v>8.5</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="45">
-        <v>3</v>
-      </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="38">
-        <v>1</v>
-      </c>
-      <c r="D33" s="39">
-        <v>1</v>
-      </c>
-      <c r="F33" s="36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="42">
-        <v>1</v>
-      </c>
-      <c r="D34" s="43">
-        <v>2.5</v>
-      </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="48">
-        <v>1</v>
-      </c>
-      <c r="D35" s="43">
-        <v>1.5</v>
-      </c>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="7"/>
-      <c r="D36" s="33"/>
-    </row>
-    <row r="37" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="7"/>
-      <c r="D37" s="33"/>
-    </row>
-    <row r="38" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="7"/>
-      <c r="D38" s="33"/>
-    </row>
-    <row r="39" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="7"/>
-      <c r="D39" s="33"/>
-    </row>
-    <row r="40" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="7"/>
-      <c r="D40" s="33"/>
-    </row>
-    <row r="41" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="7"/>
-      <c r="D41" s="33"/>
-    </row>
-    <row r="42" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="7"/>
-      <c r="D42" s="33"/>
-    </row>
-    <row r="43" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="7"/>
-      <c r="D43" s="33"/>
-    </row>
-    <row r="44" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="7"/>
-      <c r="D44" s="33"/>
-    </row>
-    <row r="45" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="7"/>
-      <c r="D45" s="33"/>
-    </row>
-    <row r="46" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="7"/>
-      <c r="D46" s="33"/>
-    </row>
-    <row r="47" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="7"/>
-      <c r="D47" s="33"/>
-    </row>
-    <row r="48" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="7"/>
-      <c r="D48" s="33"/>
-    </row>
-    <row r="49" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="7"/>
-      <c r="D49" s="33"/>
-    </row>
-    <row r="50" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="7"/>
-      <c r="D50" s="33"/>
-    </row>
-    <row r="51" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="7"/>
-      <c r="D51" s="33"/>
-    </row>
-    <row r="52" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="7"/>
-      <c r="D52" s="33"/>
-    </row>
-    <row r="53" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="7"/>
-      <c r="D53" s="33"/>
-    </row>
-    <row r="54" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="7"/>
-      <c r="D54" s="33"/>
-    </row>
-    <row r="55" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="7"/>
-      <c r="D55" s="33"/>
-    </row>
-    <row r="56" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="7"/>
-      <c r="D56" s="33"/>
-    </row>
-    <row r="57" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="7"/>
-      <c r="D57" s="33"/>
-    </row>
-    <row r="58" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="7"/>
-      <c r="D58" s="33"/>
-    </row>
-    <row r="59" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="7"/>
-      <c r="D59" s="33"/>
-    </row>
-    <row r="60" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="7"/>
-      <c r="D60" s="33"/>
-    </row>
-    <row r="61" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="7"/>
-      <c r="D61" s="33"/>
-    </row>
-    <row r="62" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="7"/>
-      <c r="D62" s="33"/>
-    </row>
-    <row r="63" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="7"/>
-      <c r="D63" s="33"/>
-    </row>
-    <row r="64" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="7"/>
-      <c r="D64" s="33"/>
-    </row>
-    <row r="65" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="7"/>
-      <c r="D65" s="33"/>
-    </row>
-    <row r="66" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="7"/>
-      <c r="D66" s="33"/>
+      <c r="D41" s="31">
+        <v>2</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="5"/>
+      <c r="D42" s="31"/>
+    </row>
+    <row r="43" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="5"/>
+      <c r="D43" s="31"/>
+    </row>
+    <row r="44" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="5"/>
+      <c r="D44" s="31"/>
+    </row>
+    <row r="45" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="5"/>
+      <c r="D45" s="31"/>
+    </row>
+    <row r="46" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="5"/>
+      <c r="D46" s="31"/>
+    </row>
+    <row r="47" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="5"/>
+      <c r="D47" s="31"/>
+    </row>
+    <row r="48" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="5"/>
+      <c r="D48" s="31"/>
+    </row>
+    <row r="49" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="5"/>
+      <c r="D49" s="31"/>
+    </row>
+    <row r="50" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="5"/>
+      <c r="D50" s="31"/>
+    </row>
+    <row r="51" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="5"/>
+      <c r="D51" s="31"/>
+    </row>
+    <row r="52" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="5"/>
+      <c r="D52" s="31"/>
+    </row>
+    <row r="53" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="5"/>
+      <c r="D53" s="31"/>
+    </row>
+    <row r="54" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="5"/>
+      <c r="D54" s="31"/>
+    </row>
+    <row r="55" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="5"/>
+      <c r="D55" s="31"/>
+    </row>
+    <row r="56" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="5"/>
+      <c r="D56" s="31"/>
+    </row>
+    <row r="57" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="5"/>
+      <c r="D57" s="31"/>
+    </row>
+    <row r="58" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="5"/>
+      <c r="D58" s="31"/>
+    </row>
+    <row r="59" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="5"/>
+      <c r="D59" s="31"/>
+    </row>
+    <row r="60" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="5"/>
+      <c r="D60" s="31"/>
+    </row>
+    <row r="61" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="5"/>
+      <c r="D61" s="31"/>
+    </row>
+    <row r="62" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="5"/>
+      <c r="D62" s="31"/>
+    </row>
+    <row r="63" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="5"/>
+      <c r="D63" s="31"/>
+    </row>
+    <row r="64" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="5"/>
+      <c r="D64" s="31"/>
+    </row>
+    <row r="65" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="5"/>
+      <c r="D65" s="31"/>
+    </row>
+    <row r="66" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="5"/>
+      <c r="D66" s="31"/>
+    </row>
+    <row r="67" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="5"/>
+      <c r="D67" s="31"/>
+    </row>
+    <row r="68" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="5"/>
+      <c r="D68" s="31"/>
+    </row>
+    <row r="69" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="5"/>
+      <c r="D69" s="31"/>
+    </row>
+    <row r="70" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="5"/>
+      <c r="D70" s="31"/>
+    </row>
+    <row r="71" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="5"/>
+      <c r="D71" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A35:F35"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Requisitos-Tareas.xlsx
+++ b/Requisitos-Tareas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Alejandro\Escritorio\evently\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seren\evently\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF91234-188D-4A74-AC31-F6A6C07AFF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4301EF8-B2DC-46E0-A732-846C29D0649C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,15 @@
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -26,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="136">
   <si>
     <t>ID REQUISITO</t>
   </si>
@@ -73,18 +82,12 @@
     <t>Comprobar que hay un mapa en la aplicación con las &amp;#10;discotecas guardadas en la base de datos.</t>
   </si>
   <si>
-    <t>servicio de &amp;#10;mensajería</t>
-  </si>
-  <si>
     <t>Los usuarios de la aplicación podrán mandarse mensajes &amp;#10;entre ellos.</t>
   </si>
   <si>
     <t>Verificar que los usuarios pueden mandar mensajes y que &amp;#10;otro usuario lo recibe.</t>
   </si>
   <si>
-    <t>sensor de&amp;#10;aglomeraciones</t>
-  </si>
-  <si>
     <t>Los usuarios deben poder ver la cantidad (una aproximación: mucha, medio, poca) de gente que hay en las discotecas.</t>
   </si>
   <si>
@@ -163,45 +166,30 @@
     <t>Verificar que los usuarios reciben su entrada al pagar con la &amp;#10;información de la discoteca/ fiesta a la que van.</t>
   </si>
   <si>
-    <t>servicio de compartir &amp;#10;coche</t>
-  </si>
-  <si>
     <t>Los usuarios pueden publicar un anuncio para compartir su coche &amp;#10;para ir a una discoteca/fiesta.</t>
   </si>
   <si>
     <t>Comprobar que un usuario puede publicar un anuncio y que los &amp;#10;demás usuarios lo pueden ver.</t>
   </si>
   <si>
-    <t>publicación de &amp;#10;imágenes</t>
-  </si>
-  <si>
     <t>Los usuarios pueden publicar imágenes en su perfil de discotecas &amp;#10;o fiestas en las que hayan estado para que los demás usuarios las &amp;#10;puedan ver.</t>
   </si>
   <si>
     <t>Comprobar que al publicar una imagen, los demás usuarios la &amp;#10;pueden ver.</t>
   </si>
   <si>
-    <t>cuenta pública o &amp;#10;privada</t>
-  </si>
-  <si>
     <t>El usuario podrá hacer su cuenta pública (todos los usuarios la &amp;#10;pueden ver) o privada (solo sus amigos la pueden ver) en cualquier momento.</t>
   </si>
   <si>
     <t>Comprobar que los usuarios tienen la opción de cambiar el estado de su cuenta de público a privado o viceversa y que, al cambiarlo, las personas que pueden ver su perfil cambian.</t>
   </si>
   <si>
-    <t>información sobre el &amp;#10;estacionamiento</t>
-  </si>
-  <si>
     <t>La aplicación informará al usuario sobre el estacionamiento en la zona a la que quieran ir de fiesta: parkings cercanos y su precio, lugares cercanos para aparcar.</t>
   </si>
   <si>
     <t>Comprobar que la aplicación proporciona información real y correcta: los parkings y sitios para aparcar realmente están cerca de la zona a la que el usuario desea ir.</t>
   </si>
   <si>
-    <t>Notificaciones sobre fiestas &amp;#10;nuevas</t>
-  </si>
-  <si>
     <t>Cuando un usuario organiza un fiesta y lo publica, sus amigos &amp;#10;recibirán una notificación con el anuncio.</t>
   </si>
   <si>
@@ -301,21 +289,9 @@
     <t>V.emergente fallo registro</t>
   </si>
   <si>
-    <t>Abrir Inicio al cerrar Registro</t>
-  </si>
-  <si>
-    <t>TDD Registro</t>
-  </si>
-  <si>
     <t>Requisito: Reseñas</t>
   </si>
   <si>
-    <t>TDD Valoraciones</t>
-  </si>
-  <si>
-    <t>PAblo</t>
-  </si>
-  <si>
     <t>Valoración</t>
   </si>
   <si>
@@ -385,16 +361,99 @@
     <t>Metodos para devolver elemntos de la BDD</t>
   </si>
   <si>
-    <t>TDD Mejora</t>
-  </si>
-  <si>
     <t>Añadir reseña mejora UI selector de Discotecas</t>
+  </si>
+  <si>
+    <t>servicio de mensajería</t>
+  </si>
+  <si>
+    <t>sensor de aglomeraciones</t>
+  </si>
+  <si>
+    <t>servicio de compartir coche</t>
+  </si>
+  <si>
+    <t>publicación de imágenes</t>
+  </si>
+  <si>
+    <t>cuenta pública o privada</t>
+  </si>
+  <si>
+    <t>información sobre el estacionamiento</t>
+  </si>
+  <si>
+    <t>Notificaciones sobre fiestas nuevas</t>
+  </si>
+  <si>
+    <t>PRIORIDAD</t>
+  </si>
+  <si>
+    <t>RIESGO</t>
+  </si>
+  <si>
+    <t>FECHA ENTREGA</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Añadir botón 'atrás' en registro</t>
+  </si>
+  <si>
+    <t>TDD registro con usuario existente</t>
+  </si>
+  <si>
+    <t>TDD registro con email incorrecto</t>
+  </si>
+  <si>
+    <t>TDD inicio sesión campos vacíos</t>
+  </si>
+  <si>
+    <t>TDD inicio sesión contraseña incorrecta</t>
+  </si>
+  <si>
+    <t>Mejora de la 1ª entrega</t>
+  </si>
+  <si>
+    <t>Mejorar los requisitos que se tuvieron que entregar en la primera entrega: filtrado, valoración, login, añadir discotecas. Y unificar la interfaz gráfica.</t>
+  </si>
+  <si>
+    <t>Comprobar que los requisitos de la primera entrega funcionan correctamente.</t>
+  </si>
+  <si>
+    <t>Interfaz Gráfica Unificada</t>
+  </si>
+  <si>
+    <t>Que las interfaces estén interrelacionadas entre sí</t>
+  </si>
+  <si>
+    <t>Comprobar que toda la funcionalidad funcione desde la interfaz y que
+Toda la interfaz esté relacionada entre sí</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -447,7 +506,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,12 +533,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF64E11F"/>
         <bgColor rgb="FF81D41A"/>
       </patternFill>
@@ -497,7 +550,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -520,11 +573,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -598,22 +660,10 @@
     <xf numFmtId="4" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -629,38 +679,79 @@
     <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1043,23 +1134,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="134" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41" style="2" customWidth="1"/>
     <col min="4" max="4" width="155.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1078,8 +1171,17 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1095,8 +1197,17 @@
       <c r="E2" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="47">
+        <v>44841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1112,8 +1223,17 @@
       <c r="E3" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="47">
+        <v>44841</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1129,251 +1249,388 @@
       <c r="E4" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="47">
+        <v>44848</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="46"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="46"/>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="47">
+        <v>44841</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="46"/>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="E10" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="47">
+        <v>44841</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="E11" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="47">
+        <v>44841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="46"/>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="46"/>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="46"/>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="46"/>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="46"/>
+    </row>
+    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="46"/>
+    </row>
+    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="46"/>
+    </row>
+    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="46"/>
+    </row>
+    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="61">
+        <v>20</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" s="47">
+        <v>44848</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" s="64">
+        <v>44848</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="8"/>
     </row>
   </sheetData>
@@ -1384,10 +1641,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,58 +1665,58 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="5">
+        <f>D3+D4+D5+D6+D37</f>
+        <v>24</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="5">
-        <f>D3+D4+D5+D6+D36</f>
-        <v>24</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="J2" s="5">
         <f>SUM(C3:C7)</f>
         <v>19</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="M2" s="5">
-        <f>SUM(H2,H12,H8,H20,H23,H25,H35)</f>
-        <v>75.099999999999994</v>
+        <f>SUM(H2,H12,H8,H20,H24,H26,H36)</f>
+        <v>73.650000000000006</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C3" s="17">
         <v>3</v>
@@ -1468,16 +1725,16 @@
         <v>4.5</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="M3" s="20"/>
     </row>
     <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C4" s="17">
         <v>8</v>
@@ -1486,15 +1743,15 @@
         <v>3</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C5" s="17">
         <v>3</v>
@@ -1503,15 +1760,15 @@
         <v>5</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C6" s="17">
         <v>5</v>
@@ -1520,7 +1777,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1532,23 +1789,23 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+      <c r="A8" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H8" s="5">
         <f>SUM(D9:D11)</f>
         <v>7</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J8" s="5">
         <f>SUM(C9:C11)</f>
@@ -1556,709 +1813,742 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="25">
+      <c r="A9" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="39">
         <v>2</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="59">
         <v>2</v>
       </c>
-      <c r="F9" s="27" t="s">
-        <v>78</v>
+      <c r="F9" s="60" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="25">
+      <c r="A10" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="39">
         <v>2</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="59">
         <v>3</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>78</v>
+      <c r="F10" s="60" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="25">
+      <c r="A11" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="39">
         <v>4</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="59">
         <v>2</v>
       </c>
-      <c r="F11" s="27" t="s">
-        <v>78</v>
+      <c r="F11" s="60" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="A12" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
       <c r="G12" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H12" s="5">
         <f>SUM(D13:D19)</f>
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J12" s="5">
         <f>SUM(C13:C19)</f>
-        <v>8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="29">
+      <c r="A13" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="25">
         <v>1</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="26">
         <v>1</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="29">
+      <c r="A14" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="25">
         <v>1</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="26">
         <v>2</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="29">
+      <c r="A15" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="25">
         <v>2</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="26">
         <v>1.5</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="29">
+      <c r="A16" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="25">
         <v>1</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="26">
         <v>2</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="29">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="25">
         <v>0.5</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="26">
         <v>0.5</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="49">
+        <v>1</v>
+      </c>
+      <c r="D18" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18" s="51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="49">
+        <v>1</v>
+      </c>
+      <c r="D19" s="50">
+        <v>0.75</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" s="51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="49">
+        <v>1</v>
+      </c>
+      <c r="D20" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="52"/>
+      <c r="F20" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="27">
+        <f>SUM(D21:D24)</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="5">
+        <f>SUM(C21:C24)</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="49">
+        <v>1</v>
+      </c>
+      <c r="D21" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="52"/>
+      <c r="F21" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="E22" s="52"/>
+      <c r="F22" s="51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="53" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="56"/>
+    </row>
+    <row r="24" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="17">
+        <v>8</v>
+      </c>
+      <c r="D24" s="18">
+        <v>8.5</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="27">
+        <f>SUM(D26)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+    </row>
+    <row r="26" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="25">
+        <v>0</v>
+      </c>
+      <c r="D26" s="26">
+        <v>3.5</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="27">
+        <f>SUM(D28:D34)</f>
+        <v>12.100000000000001</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" s="5">
+        <f>SUM(C28:C34)</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+    </row>
+    <row r="28" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B28" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="17">
+        <v>3</v>
+      </c>
+      <c r="D28" s="18">
+        <v>4.5</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="17">
+        <v>1</v>
+      </c>
+      <c r="D29" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="17">
+        <v>2</v>
+      </c>
+      <c r="D30" s="18">
+        <v>1</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="36">
+        <v>1</v>
+      </c>
+      <c r="D31" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="36">
+        <v>1</v>
+      </c>
+      <c r="D32" s="37">
+        <v>1.2</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="K32" s="42"/>
+    </row>
+    <row r="33" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="36">
+        <v>2</v>
+      </c>
+      <c r="D33" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="36">
+        <v>2.5</v>
+      </c>
+      <c r="D34" s="37">
+        <v>3</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="27">
+        <f>SUM(D37:D39)</f>
+        <v>9.5</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" s="5">
+        <f>SUM(C37:C39)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="17">
+        <v>5</v>
+      </c>
+      <c r="D37" s="18">
+        <v>8.5</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="39">
+        <v>3</v>
+      </c>
+      <c r="D38" s="40"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="32">
+        <v>1</v>
+      </c>
+      <c r="D39" s="33">
+        <v>1</v>
+      </c>
+      <c r="E39" s="54"/>
+      <c r="F39" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C40" s="36">
+        <v>1</v>
+      </c>
+      <c r="D40" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="E40" s="54"/>
+      <c r="F40" s="34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="36">
+        <v>1</v>
+      </c>
+      <c r="D41" s="37">
         <v>1.5</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="F18" s="27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="25">
-        <v>1</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="31">
-        <f>SUM(D21:D23)</f>
-        <v>12</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" s="5">
-        <f>SUM(C21:C23)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="25">
+      <c r="E41" s="54"/>
+      <c r="F41" s="34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="29">
         <v>2</v>
       </c>
-      <c r="D21" s="26">
-        <v>3</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="33">
-        <v>1</v>
-      </c>
-      <c r="D22" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="17">
-        <v>8</v>
-      </c>
-      <c r="D23" s="18">
-        <v>8.5</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="31">
-        <f>SUM(D25)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-    </row>
-    <row r="25" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="29">
-        <v>0</v>
-      </c>
-      <c r="D25" s="30">
-        <v>3.5</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" s="31">
-        <f>SUM(D27:D33)</f>
-        <v>12.100000000000001</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25" s="5">
-        <f>SUM(C27:C33)</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-    </row>
-    <row r="27" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="17">
-        <v>3</v>
-      </c>
-      <c r="D27" s="18">
-        <v>4.5</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="17">
-        <v>1</v>
-      </c>
-      <c r="D28" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="17">
+      <c r="D42" s="27">
         <v>2</v>
       </c>
-      <c r="D29" s="18">
-        <v>1</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="33">
-        <v>1</v>
-      </c>
-      <c r="D30" s="31">
-        <v>0.4</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="33">
-        <v>1</v>
-      </c>
-      <c r="D31" s="31">
-        <v>1.2</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="K31" s="49"/>
-    </row>
-    <row r="32" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="33">
-        <v>2</v>
-      </c>
-      <c r="D32" s="31">
-        <v>1.5</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="D33" s="31">
-        <v>3</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H35" s="31">
-        <f>SUM(D36:D38)</f>
-        <v>9.5</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J35" s="5">
-        <f>SUM(C36:C38)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="17">
-        <v>5</v>
-      </c>
-      <c r="D36" s="18">
-        <v>8.5</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="B37" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="43">
-        <v>3</v>
-      </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="36">
-        <v>1</v>
-      </c>
-      <c r="D38" s="37">
-        <v>1</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="40">
-        <v>1</v>
-      </c>
-      <c r="D39" s="41">
-        <v>2.5</v>
-      </c>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="46">
-        <v>1</v>
-      </c>
-      <c r="D40" s="41">
-        <v>1.5</v>
-      </c>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="33">
-        <v>2</v>
-      </c>
-      <c r="D41" s="31">
-        <v>2</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="5"/>
-      <c r="D42" s="31"/>
+      <c r="F42" s="21" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="43" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="5"/>
-      <c r="D43" s="31"/>
+      <c r="D43" s="27"/>
     </row>
     <row r="44" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="5"/>
-      <c r="D44" s="31"/>
+      <c r="D44" s="27"/>
     </row>
     <row r="45" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
-      <c r="D45" s="31"/>
+      <c r="D45" s="27"/>
     </row>
     <row r="46" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="5"/>
-      <c r="D46" s="31"/>
+      <c r="D46" s="27"/>
     </row>
     <row r="47" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="5"/>
-      <c r="D47" s="31"/>
+      <c r="D47" s="27"/>
     </row>
     <row r="48" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="5"/>
-      <c r="D48" s="31"/>
+      <c r="D48" s="27"/>
     </row>
     <row r="49" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="5"/>
-      <c r="D49" s="31"/>
+      <c r="D49" s="27"/>
     </row>
     <row r="50" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="5"/>
-      <c r="D50" s="31"/>
+      <c r="D50" s="27"/>
     </row>
     <row r="51" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="5"/>
-      <c r="D51" s="31"/>
+      <c r="D51" s="27"/>
     </row>
     <row r="52" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C52" s="5"/>
-      <c r="D52" s="31"/>
+      <c r="D52" s="27"/>
     </row>
     <row r="53" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C53" s="5"/>
-      <c r="D53" s="31"/>
+      <c r="D53" s="27"/>
     </row>
     <row r="54" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="5"/>
-      <c r="D54" s="31"/>
+      <c r="D54" s="27"/>
     </row>
     <row r="55" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="5"/>
-      <c r="D55" s="31"/>
+      <c r="D55" s="27"/>
     </row>
     <row r="56" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="5"/>
-      <c r="D56" s="31"/>
+      <c r="D56" s="27"/>
     </row>
     <row r="57" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" s="5"/>
-      <c r="D57" s="31"/>
+      <c r="D57" s="27"/>
     </row>
     <row r="58" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="5"/>
-      <c r="D58" s="31"/>
+      <c r="D58" s="27"/>
     </row>
     <row r="59" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" s="5"/>
-      <c r="D59" s="31"/>
+      <c r="D59" s="27"/>
     </row>
     <row r="60" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" s="5"/>
-      <c r="D60" s="31"/>
+      <c r="D60" s="27"/>
     </row>
     <row r="61" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="5"/>
-      <c r="D61" s="31"/>
+      <c r="D61" s="27"/>
     </row>
     <row r="62" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="5"/>
-      <c r="D62" s="31"/>
+      <c r="D62" s="27"/>
     </row>
     <row r="63" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63" s="5"/>
-      <c r="D63" s="31"/>
+      <c r="D63" s="27"/>
     </row>
     <row r="64" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="5"/>
-      <c r="D64" s="31"/>
+      <c r="D64" s="27"/>
     </row>
     <row r="65" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="5"/>
-      <c r="D65" s="31"/>
+      <c r="D65" s="27"/>
     </row>
     <row r="66" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" s="5"/>
-      <c r="D66" s="31"/>
+      <c r="D66" s="27"/>
     </row>
     <row r="67" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="5"/>
-      <c r="D67" s="31"/>
+      <c r="D67" s="27"/>
     </row>
     <row r="68" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C68" s="5"/>
-      <c r="D68" s="31"/>
+      <c r="D68" s="27"/>
     </row>
     <row r="69" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C69" s="5"/>
-      <c r="D69" s="31"/>
+      <c r="D69" s="27"/>
     </row>
     <row r="70" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C70" s="5"/>
-      <c r="D70" s="31"/>
+      <c r="D70" s="27"/>
     </row>
     <row r="71" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C71" s="5"/>
-      <c r="D71" s="31"/>
+      <c r="D71" s="27"/>
+    </row>
+    <row r="72" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="5"/>
+      <c r="D72" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A36:F36"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A23:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Requisitos-Tareas.xlsx
+++ b/Requisitos-Tareas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seren\evently\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4301EF8-B2DC-46E0-A732-846C29D0649C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2FE816-3001-4F65-A4D7-10826108487E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="138">
   <si>
     <t>ID REQUISITO</t>
   </si>
@@ -444,6 +444,12 @@
   <si>
     <t>Comprobar que toda la funcionalidad funcione desde la interfaz y que
 Toda la interfaz esté relacionada entre sí</t>
+  </si>
+  <si>
+    <t>Requisito: Perfil de usuario</t>
+  </si>
+  <si>
+    <t>Interfaz gráfica</t>
   </si>
 </sst>
 </file>
@@ -586,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -702,12 +708,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -730,28 +730,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1136,7 +1148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:I22"/>
     </sheetView>
   </sheetViews>
@@ -1171,13 +1183,13 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="43" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1197,13 +1209,13 @@
       <c r="E2" s="5">
         <v>2</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="I2" s="47">
+      <c r="I2" s="45">
         <v>44841</v>
       </c>
     </row>
@@ -1223,13 +1235,13 @@
       <c r="E3" s="5">
         <v>2</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="47">
+      <c r="I3" s="45">
         <v>44841</v>
       </c>
     </row>
@@ -1249,13 +1261,13 @@
       <c r="E4" s="5">
         <v>13</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="45">
         <v>44848</v>
       </c>
     </row>
@@ -1272,10 +1284,10 @@
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="H5" s="46"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -1290,10 +1302,10 @@
       <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="46"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -1311,13 +1323,13 @@
       <c r="E7" s="5">
         <v>3</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="I7" s="47">
+      <c r="I7" s="45">
         <v>44841</v>
       </c>
     </row>
@@ -1334,10 +1346,10 @@
       <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="44" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1354,10 +1366,10 @@
       <c r="D9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="H9" s="46"/>
+      <c r="H9" s="44"/>
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1375,13 +1387,13 @@
       <c r="E10" s="5">
         <v>2</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="I10" s="47">
+      <c r="I10" s="45">
         <v>44841</v>
       </c>
     </row>
@@ -1401,13 +1413,13 @@
       <c r="E11" s="5">
         <v>8</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="46" t="s">
+      <c r="H11" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="45">
         <v>44841</v>
       </c>
     </row>
@@ -1424,10 +1436,10 @@
       <c r="D12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="H12" s="46"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -1442,10 +1454,10 @@
       <c r="D13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="H13" s="46"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -1460,10 +1472,10 @@
       <c r="D14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="H14" s="46"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -1478,10 +1490,10 @@
       <c r="D15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="H15" s="46"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -1496,10 +1508,10 @@
       <c r="D16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="H16" s="46" t="s">
+      <c r="H16" s="44" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1516,10 +1528,10 @@
       <c r="D17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="H17" s="46"/>
+      <c r="H17" s="44"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -1534,10 +1546,10 @@
       <c r="D18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="46"/>
+      <c r="H18" s="44"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
@@ -1552,10 +1564,10 @@
       <c r="D19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="H19" s="46"/>
+      <c r="H19" s="44"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
@@ -1570,33 +1582,33 @@
       <c r="D20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="H20" s="46"/>
+      <c r="H20" s="44"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61">
+      <c r="A21" s="57">
         <v>20</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="62" t="s">
+      <c r="D21" s="58" t="s">
         <v>132</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="46" t="s">
+      <c r="H21" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="I21" s="47">
+      <c r="I21" s="45">
         <v>44848</v>
       </c>
     </row>
@@ -1610,20 +1622,20 @@
       <c r="C22" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="59" t="s">
         <v>135</v>
       </c>
       <c r="E22">
         <v>8</v>
       </c>
       <c r="F22"/>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="H22" s="46" t="s">
+      <c r="H22" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="I22" s="64">
+      <c r="I22" s="60">
         <v>44848</v>
       </c>
     </row>
@@ -1643,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1681,14 +1693,14 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
       <c r="G2" s="6" t="s">
         <v>62</v>
       </c>
@@ -1789,14 +1801,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="6" t="s">
         <v>62</v>
       </c>
@@ -1822,10 +1834,10 @@
       <c r="C9" s="39">
         <v>2</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="55">
         <v>2</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="56" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1839,10 +1851,10 @@
       <c r="C10" s="39">
         <v>2</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="55">
         <v>3</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="56" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1856,22 +1868,22 @@
       <c r="C11" s="39">
         <v>4</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D11" s="55">
         <v>2</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="56" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="6" t="s">
         <v>62</v>
       </c>
@@ -1974,56 +1986,56 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="47">
         <v>1</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="48">
         <v>0.5</v>
       </c>
       <c r="E18"/>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="49" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="47">
         <v>1</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="48">
         <v>0.75</v>
       </c>
       <c r="E19"/>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="49" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="47">
         <v>1</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="48">
         <v>0.5</v>
       </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="51" t="s">
+      <c r="E20" s="50"/>
+      <c r="F20" s="49" t="s">
         <v>67</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -2042,58 +2054,58 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="47">
         <v>1</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="48">
         <v>0.5</v>
       </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="51" t="s">
+      <c r="E21" s="50"/>
+      <c r="F21" s="49" t="s">
         <v>67</v>
       </c>
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="47">
         <v>0.5</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="48">
         <v>0.3</v>
       </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="53" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+      <c r="E22" s="50"/>
+      <c r="F22" s="49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="51" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="56"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="54"/>
     </row>
     <row r="24" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
@@ -2120,14 +2132,14 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
     </row>
     <row r="26" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
@@ -2161,14 +2173,14 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
     </row>
     <row r="28" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
@@ -2293,14 +2305,14 @@
     </row>
     <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
       <c r="G36" s="6" t="s">
         <v>62</v>
       </c>
@@ -2344,7 +2356,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="40"/>
-      <c r="E38" s="54"/>
+      <c r="E38" s="52"/>
       <c r="F38" s="41" t="s">
         <v>67</v>
       </c>
@@ -2362,7 +2374,7 @@
       <c r="D39" s="33">
         <v>1</v>
       </c>
-      <c r="E39" s="54"/>
+      <c r="E39" s="52"/>
       <c r="F39" s="30" t="s">
         <v>67</v>
       </c>
@@ -2380,7 +2392,7 @@
       <c r="D40" s="37">
         <v>2.5</v>
       </c>
-      <c r="E40" s="54"/>
+      <c r="E40" s="52"/>
       <c r="F40" s="34" t="s">
         <v>67</v>
       </c>
@@ -2398,7 +2410,7 @@
       <c r="D41" s="37">
         <v>1.5</v>
       </c>
-      <c r="E41" s="54"/>
+      <c r="E41" s="52"/>
       <c r="F41" s="34" t="s">
         <v>67</v>
       </c>
@@ -2425,12 +2437,41 @@
       <c r="D43" s="27"/>
     </row>
     <row r="44" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="5"/>
-      <c r="D44" s="27"/>
+      <c r="A44" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J44" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="45" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="5"/>
-      <c r="D45" s="27"/>
+      <c r="A45" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="66">
+        <v>4</v>
+      </c>
+      <c r="D45" s="37">
+        <v>5</v>
+      </c>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="46" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="5"/>
@@ -2541,7 +2582,8 @@
       <c r="D72" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A44:F44"/>
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A2:F2"/>

--- a/Requisitos-Tareas.xlsx
+++ b/Requisitos-Tareas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seren\evently\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2FE816-3001-4F65-A4D7-10826108487E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC74E84-B7F5-44CE-8F76-69BC78BB5E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="139">
   <si>
     <t>ID REQUISITO</t>
   </si>
@@ -450,6 +450,9 @@
   </si>
   <si>
     <t>Interfaz gráfica</t>
+  </si>
+  <si>
+    <t>Mostrar datos del usuario</t>
   </si>
 </sst>
 </file>
@@ -592,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -671,9 +674,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -746,6 +746,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -757,12 +763,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,13 +1183,13 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="42" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1209,13 +1209,13 @@
       <c r="E2" s="5">
         <v>2</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="I2" s="45">
+      <c r="I2" s="44">
         <v>44841</v>
       </c>
     </row>
@@ -1235,13 +1235,13 @@
       <c r="E3" s="5">
         <v>2</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I3" s="44">
         <v>44841</v>
       </c>
     </row>
@@ -1261,13 +1261,13 @@
       <c r="E4" s="5">
         <v>13</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="44">
         <v>44848</v>
       </c>
     </row>
@@ -1284,10 +1284,10 @@
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="H5" s="44"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -1302,10 +1302,10 @@
       <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="44"/>
+      <c r="H6" s="43"/>
     </row>
     <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -1323,13 +1323,13 @@
       <c r="E7" s="5">
         <v>3</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="44">
         <v>44841</v>
       </c>
     </row>
@@ -1346,10 +1346,10 @@
       <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="43" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1366,10 +1366,10 @@
       <c r="D9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="H9" s="44"/>
+      <c r="H9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1387,13 +1387,13 @@
       <c r="E10" s="5">
         <v>2</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="44">
         <v>44841</v>
       </c>
     </row>
@@ -1413,13 +1413,13 @@
       <c r="E11" s="5">
         <v>8</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="44" t="s">
+      <c r="H11" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="44">
         <v>44841</v>
       </c>
     </row>
@@ -1436,10 +1436,10 @@
       <c r="D12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="H12" s="44"/>
+      <c r="H12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -1454,10 +1454,10 @@
       <c r="D13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="H13" s="44"/>
+      <c r="H13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -1472,10 +1472,10 @@
       <c r="D14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="H14" s="44"/>
+      <c r="H14" s="43"/>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -1490,10 +1490,10 @@
       <c r="D15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="H15" s="44"/>
+      <c r="H15" s="43"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -1508,10 +1508,10 @@
       <c r="D16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="43" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1528,10 +1528,10 @@
       <c r="D17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="H17" s="44"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -1546,10 +1546,10 @@
       <c r="D18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="44"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
@@ -1564,10 +1564,10 @@
       <c r="D19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="H19" s="44"/>
+      <c r="H19" s="43"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
@@ -1582,33 +1582,33 @@
       <c r="D20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="H20" s="44"/>
+      <c r="H20" s="43"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57">
+      <c r="A21" s="56">
         <v>20</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="57" t="s">
         <v>132</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="I21" s="45">
+      <c r="I21" s="44">
         <v>44848</v>
       </c>
     </row>
@@ -1622,20 +1622,20 @@
       <c r="C22" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="58" t="s">
         <v>135</v>
       </c>
       <c r="E22">
         <v>8</v>
       </c>
       <c r="F22"/>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="H22" s="44" t="s">
+      <c r="H22" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="I22" s="60">
+      <c r="I22" s="59">
         <v>44848</v>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
   <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,14 +1693,14 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="6" t="s">
         <v>62</v>
       </c>
@@ -1801,14 +1801,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="6" t="s">
         <v>62</v>
       </c>
@@ -1825,65 +1825,65 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="38">
         <v>2</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="54">
         <v>2</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="55" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="38">
         <v>2</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="54">
         <v>3</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="55" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="38">
         <v>4</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="54">
         <v>2</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="55" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="6" t="s">
         <v>62</v>
       </c>
@@ -1986,56 +1986,56 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="46">
         <v>1</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="47">
         <v>0.5</v>
       </c>
       <c r="E18"/>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="48" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="46">
         <v>1</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="47">
         <v>0.75</v>
       </c>
       <c r="E19"/>
-      <c r="F19" s="49" t="s">
+      <c r="F19" s="48" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="46">
         <v>1</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="47">
         <v>0.5</v>
       </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="49" t="s">
+      <c r="E20" s="49"/>
+      <c r="F20" s="48" t="s">
         <v>67</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -2054,58 +2054,58 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="47">
+      <c r="C21" s="46">
         <v>1</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="47">
         <v>0.5</v>
       </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="49" t="s">
+      <c r="E21" s="49"/>
+      <c r="F21" s="48" t="s">
         <v>67</v>
       </c>
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22" s="46">
         <v>0.5</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="47">
         <v>0.3</v>
       </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="51" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="s">
+      <c r="E22" s="49"/>
+      <c r="F22" s="48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="54"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="53"/>
     </row>
     <row r="24" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
@@ -2132,14 +2132,14 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
     </row>
     <row r="26" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
@@ -2173,14 +2173,14 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
     </row>
     <row r="28" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
@@ -2235,16 +2235,16 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="35">
         <v>1</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="36">
         <v>0.4</v>
       </c>
       <c r="F31" s="21" t="s">
@@ -2252,34 +2252,34 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="35">
         <v>1</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="36">
         <v>1.2</v>
       </c>
       <c r="F32" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="K32" s="42"/>
+      <c r="K32" s="41"/>
     </row>
     <row r="33" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="35">
         <v>2</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="36">
         <v>1.5</v>
       </c>
       <c r="F33" s="21" t="s">
@@ -2287,16 +2287,16 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="35">
         <v>2.5</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="36">
         <v>3</v>
       </c>
       <c r="F34" s="21" t="s">
@@ -2305,14 +2305,14 @@
     </row>
     <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
       <c r="G36" s="6" t="s">
         <v>62</v>
       </c>
@@ -2346,86 +2346,86 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="39">
+      <c r="C38" s="38">
         <v>3</v>
       </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="41" t="s">
+      <c r="D38" s="39"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="40" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="32">
+      <c r="C39" s="31">
         <v>1</v>
       </c>
-      <c r="D39" s="33">
+      <c r="D39" s="32">
         <v>1</v>
       </c>
-      <c r="E39" s="52"/>
-      <c r="F39" s="30" t="s">
+      <c r="E39" s="51"/>
+      <c r="F39" s="29" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="35">
         <v>1</v>
       </c>
-      <c r="D40" s="37">
+      <c r="D40" s="36">
         <v>2.5</v>
       </c>
-      <c r="E40" s="52"/>
-      <c r="F40" s="34" t="s">
+      <c r="E40" s="51"/>
+      <c r="F40" s="33" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="35">
         <v>1</v>
       </c>
-      <c r="D41" s="37">
+      <c r="D41" s="36">
         <v>1.5</v>
       </c>
-      <c r="E41" s="52"/>
-      <c r="F41" s="34" t="s">
+      <c r="E41" s="51"/>
+      <c r="F41" s="33" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="29">
+      <c r="C42" s="35">
         <v>2</v>
       </c>
-      <c r="D42" s="27">
+      <c r="D42" s="36">
         <v>2</v>
       </c>
       <c r="F42" s="21" t="s">
@@ -2437,14 +2437,14 @@
       <c r="D43" s="27"/>
     </row>
     <row r="44" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="65" t="s">
+      <c r="A44" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
       <c r="G44" s="2" t="s">
         <v>62</v>
       </c>
@@ -2456,26 +2456,40 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="66">
+      <c r="C45" s="60">
         <v>4</v>
       </c>
-      <c r="D45" s="37">
+      <c r="D45" s="36">
         <v>5</v>
       </c>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34" t="s">
+      <c r="E45" s="33"/>
+      <c r="F45" s="33" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="5"/>
-      <c r="D46" s="27"/>
+      <c r="A46" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="60">
+        <v>1.5</v>
+      </c>
+      <c r="D46" s="36">
+        <v>2</v>
+      </c>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="47" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="5"/>

--- a/Requisitos-Tareas.xlsx
+++ b/Requisitos-Tareas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seren\evently\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablo/Documents/IngenieriaSoft/even_dysco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC74E84-B7F5-44CE-8F76-69BC78BB5E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B348B369-E71A-FF4B-BFF6-9C45B298BC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23900" windowHeight="13360" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="145">
   <si>
     <t>ID REQUISITO</t>
   </si>
@@ -453,15 +453,32 @@
   </si>
   <si>
     <t>Mostrar datos del usuario</t>
+  </si>
+  <si>
+    <t>Carta de servicio de Discoteca</t>
+  </si>
+  <si>
+    <t>Que se pueda mostrar una ventana que contenga una carta de servicios de las discotecas</t>
+  </si>
+  <si>
+    <t>Comprobar que se genera una ventana con la carta para las discotecas.</t>
+  </si>
+  <si>
+    <t>Requisito: Carta de discotecas</t>
+  </si>
+  <si>
+    <t>Funcionalidad de interfaz</t>
+  </si>
+  <si>
+    <t>Ampliación de la base de datos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -515,7 +532,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,6 +575,12 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -595,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -745,7 +768,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -763,6 +786,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,7 +883,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1149,22 +1182,22 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:I22"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="2" customWidth="1"/>
-    <col min="3" max="3" width="41" style="2" customWidth="1"/>
-    <col min="4" max="4" width="155.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="134" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="155.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1193,7 +1226,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1219,7 +1252,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1245,7 +1278,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1271,7 +1304,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1289,7 +1322,7 @@
       </c>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1307,7 +1340,7 @@
       </c>
       <c r="H6" s="43"/>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1333,7 +1366,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1353,7 +1386,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1371,7 +1404,7 @@
       </c>
       <c r="H9" s="43"/>
     </row>
-    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1397,7 +1430,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1423,7 +1456,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1441,7 +1474,7 @@
       </c>
       <c r="H12" s="43"/>
     </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1459,7 +1492,7 @@
       </c>
       <c r="H13" s="43"/>
     </row>
-    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1477,7 +1510,7 @@
       </c>
       <c r="H14" s="43"/>
     </row>
-    <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1495,7 +1528,7 @@
       </c>
       <c r="H15" s="43"/>
     </row>
-    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1515,7 +1548,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1533,7 +1566,7 @@
       </c>
       <c r="H17" s="43"/>
     </row>
-    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1551,7 +1584,7 @@
       </c>
       <c r="H18" s="43"/>
     </row>
-    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1569,7 +1602,7 @@
       </c>
       <c r="H19" s="43"/>
     </row>
-    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1587,7 +1620,7 @@
       </c>
       <c r="H20" s="43"/>
     </row>
-    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="56">
         <v>20</v>
       </c>
@@ -1612,7 +1645,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1639,10 +1672,26 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="8"/>
     </row>
   </sheetData>
@@ -1655,27 +1704,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="2" customWidth="1"/>
     <col min="3" max="3" width="13" style="9" customWidth="1"/>
     <col min="4" max="4" width="13" style="10" customWidth="1"/>
     <col min="5" max="5" width="13" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="12.42578125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="11" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="12" width="12.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>56</v>
       </c>
@@ -1692,7 +1741,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="63" t="s">
         <v>61</v>
       </c>
@@ -1723,7 +1772,7 @@
         <v>73.650000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>65</v>
       </c>
@@ -1741,7 +1790,7 @@
       </c>
       <c r="M3" s="20"/>
     </row>
-    <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>68</v>
       </c>
@@ -1758,7 +1807,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>69</v>
       </c>
@@ -1775,7 +1824,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>70</v>
       </c>
@@ -1792,7 +1841,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
@@ -1800,7 +1849,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="62" t="s">
         <v>72</v>
       </c>
@@ -1824,7 +1873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>73</v>
       </c>
@@ -1841,7 +1890,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>75</v>
       </c>
@@ -1858,7 +1907,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>76</v>
       </c>
@@ -1875,7 +1924,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="62" t="s">
         <v>77</v>
       </c>
@@ -1899,7 +1948,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
         <v>78</v>
       </c>
@@ -1916,7 +1965,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
         <v>80</v>
       </c>
@@ -1933,7 +1982,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
         <v>81</v>
       </c>
@@ -1950,7 +1999,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
         <v>82</v>
       </c>
@@ -1967,7 +2016,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
         <v>83</v>
       </c>
@@ -1985,7 +2034,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="45" t="s">
         <v>125</v>
       </c>
@@ -2003,7 +2052,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="45" t="s">
         <v>126</v>
       </c>
@@ -2021,7 +2070,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="45" t="s">
         <v>127</v>
       </c>
@@ -2053,7 +2102,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="45" t="s">
         <v>128</v>
       </c>
@@ -2072,7 +2121,7 @@
       </c>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="45" t="s">
         <v>129</v>
       </c>
@@ -2090,7 +2139,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="64" t="s">
         <v>84</v>
       </c>
@@ -2107,7 +2156,7 @@
       <c r="L23" s="51"/>
       <c r="M23" s="53"/>
     </row>
-    <row r="24" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>85</v>
       </c>
@@ -2131,7 +2180,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="62" t="s">
         <v>87</v>
       </c>
@@ -2141,7 +2190,7 @@
       <c r="E25" s="62"/>
       <c r="F25" s="62"/>
     </row>
-    <row r="26" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
         <v>88</v>
       </c>
@@ -2172,7 +2221,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="62" t="s">
         <v>90</v>
       </c>
@@ -2182,7 +2231,7 @@
       <c r="E27" s="62"/>
       <c r="F27" s="62"/>
     </row>
-    <row r="28" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
         <v>91</v>
       </c>
@@ -2200,7 +2249,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
         <v>92</v>
       </c>
@@ -2217,7 +2266,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
         <v>93</v>
       </c>
@@ -2234,7 +2283,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="40" t="s">
         <v>95</v>
       </c>
@@ -2251,7 +2300,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="40" t="s">
         <v>105</v>
       </c>
@@ -2269,7 +2318,7 @@
       </c>
       <c r="K32" s="41"/>
     </row>
-    <row r="33" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="40" t="s">
         <v>106</v>
       </c>
@@ -2286,7 +2335,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="40" t="s">
         <v>107</v>
       </c>
@@ -2303,8 +2352,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="62" t="s">
         <v>97</v>
       </c>
@@ -2328,7 +2377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>98</v>
       </c>
@@ -2345,7 +2394,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="37" t="s">
         <v>100</v>
       </c>
@@ -2361,7 +2410,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="29" t="s">
         <v>102</v>
       </c>
@@ -2379,7 +2428,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33" t="s">
         <v>103</v>
       </c>
@@ -2397,7 +2446,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33" t="s">
         <v>104</v>
       </c>
@@ -2415,7 +2464,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="40" t="s">
         <v>108</v>
       </c>
@@ -2432,11 +2481,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="5"/>
       <c r="D43" s="27"/>
     </row>
-    <row r="44" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="61" t="s">
         <v>136</v>
       </c>
@@ -2455,7 +2504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="33" t="s">
         <v>137</v>
       </c>
@@ -2473,7 +2522,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33" t="s">
         <v>138</v>
       </c>
@@ -2491,107 +2540,138 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="5"/>
       <c r="D47" s="27"/>
     </row>
-    <row r="48" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="C48" s="5"/>
       <c r="D48" s="27"/>
     </row>
-    <row r="49" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="5"/>
-      <c r="D49" s="27"/>
-    </row>
-    <row r="50" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="5"/>
-      <c r="D50" s="27"/>
-    </row>
-    <row r="51" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="5"/>
-      <c r="D51" s="27"/>
-    </row>
-    <row r="52" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="68">
+        <v>3</v>
+      </c>
+      <c r="D49" s="69"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" s="67"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" s="67"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="5"/>
       <c r="D52" s="27"/>
     </row>
-    <row r="53" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="5"/>
       <c r="D53" s="27"/>
     </row>
-    <row r="54" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="5"/>
       <c r="D54" s="27"/>
     </row>
-    <row r="55" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="5"/>
       <c r="D55" s="27"/>
     </row>
-    <row r="56" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="5"/>
       <c r="D56" s="27"/>
     </row>
-    <row r="57" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="5"/>
       <c r="D57" s="27"/>
     </row>
-    <row r="58" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="5"/>
       <c r="D58" s="27"/>
     </row>
-    <row r="59" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="5"/>
       <c r="D59" s="27"/>
     </row>
-    <row r="60" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="5"/>
       <c r="D60" s="27"/>
     </row>
-    <row r="61" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="5"/>
       <c r="D61" s="27"/>
     </row>
-    <row r="62" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="5"/>
       <c r="D62" s="27"/>
     </row>
-    <row r="63" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="5"/>
       <c r="D63" s="27"/>
     </row>
-    <row r="64" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="5"/>
       <c r="D64" s="27"/>
     </row>
-    <row r="65" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="5"/>
       <c r="D65" s="27"/>
     </row>
-    <row r="66" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="5"/>
       <c r="D66" s="27"/>
     </row>
-    <row r="67" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="5"/>
       <c r="D67" s="27"/>
     </row>
-    <row r="68" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="5"/>
       <c r="D68" s="27"/>
     </row>
-    <row r="69" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="5"/>
       <c r="D69" s="27"/>
     </row>
-    <row r="70" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="5"/>
       <c r="D70" s="27"/>
     </row>
-    <row r="71" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="5"/>
       <c r="D71" s="27"/>
     </row>
-    <row r="72" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="5"/>
       <c r="D72" s="27"/>
     </row>

--- a/Requisitos-Tareas.xlsx
+++ b/Requisitos-Tareas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablo/Documents/IngenieriaSoft/even_dysco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B348B369-E71A-FF4B-BFF6-9C45B298BC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B56BEC-64EF-AC4C-AB62-EDFC68D3577D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23900" windowHeight="13360" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="148">
   <si>
     <t>ID REQUISITO</t>
   </si>
@@ -471,6 +471,15 @@
   </si>
   <si>
     <t>Ampliación de la base de datos</t>
+  </si>
+  <si>
+    <t>Video youtube para manejar varias ventanas en pyqt5</t>
+  </si>
+  <si>
+    <t>0,25</t>
+  </si>
+  <si>
+    <t>Pair Programming con Joaquin</t>
   </si>
 </sst>
 </file>
@@ -532,7 +541,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,6 +590,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -618,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -795,6 +810,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1705,7 +1727,7 @@
   <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2592,12 +2614,40 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="5"/>
-      <c r="D52" s="27"/>
+      <c r="A52" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" s="72">
+        <v>0.25</v>
+      </c>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="53" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="5"/>
-      <c r="D53" s="27"/>
+      <c r="A53" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="71">
+        <v>1</v>
+      </c>
+      <c r="D53" s="72">
+        <v>0.75</v>
+      </c>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="54" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="5"/>

--- a/Requisitos-Tareas.xlsx
+++ b/Requisitos-Tareas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablo/Documents/IngenieriaSoft/even_dysco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B56BEC-64EF-AC4C-AB62-EDFC68D3577D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9D7109-0E9F-3546-889A-5E0AFCEDDA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23900" windowHeight="13360" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Requisitos-Tareas.xlsx
+++ b/Requisitos-Tareas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablo/Documents/IngenieriaSoft/even_dysco/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seren\evently\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9D7109-0E9F-3546-889A-5E0AFCEDDA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352F1107-BA04-46AE-801B-25A57F9C98BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23900" windowHeight="13360" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="150">
   <si>
     <t>ID REQUISITO</t>
   </si>
@@ -480,6 +480,12 @@
   </si>
   <si>
     <t>Pair Programming con Joaquin</t>
+  </si>
+  <si>
+    <t>Botón para ver mis reseñas</t>
+  </si>
+  <si>
+    <t>Serena, Alex</t>
   </si>
 </sst>
 </file>
@@ -787,21 +793,6 @@
     <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -818,6 +809,21 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -905,7 +911,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1207,19 +1213,19 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="2" customWidth="1"/>
     <col min="3" max="3" width="134" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="155.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="155.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +1254,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1274,7 +1280,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1300,7 +1306,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1326,7 +1332,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1344,7 +1350,7 @@
       </c>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1362,7 +1368,7 @@
       </c>
       <c r="H6" s="43"/>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1388,7 +1394,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1408,7 +1414,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1426,7 +1432,7 @@
       </c>
       <c r="H9" s="43"/>
     </row>
-    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1452,7 +1458,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1478,7 +1484,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1496,7 +1502,7 @@
       </c>
       <c r="H12" s="43"/>
     </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1514,7 +1520,7 @@
       </c>
       <c r="H13" s="43"/>
     </row>
-    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1532,7 +1538,7 @@
       </c>
       <c r="H14" s="43"/>
     </row>
-    <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1550,7 +1556,7 @@
       </c>
       <c r="H15" s="43"/>
     </row>
-    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1570,7 +1576,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1588,7 +1594,7 @@
       </c>
       <c r="H17" s="43"/>
     </row>
-    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1606,7 +1612,7 @@
       </c>
       <c r="H18" s="43"/>
     </row>
-    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1624,7 +1630,7 @@
       </c>
       <c r="H19" s="43"/>
     </row>
-    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1642,7 +1648,7 @@
       </c>
       <c r="H20" s="43"/>
     </row>
-    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="56">
         <v>20</v>
       </c>
@@ -1667,7 +1673,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1694,26 +1700,26 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="66" t="s">
+      <c r="D23" s="61" t="s">
         <v>141</v>
       </c>
       <c r="E23" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="8"/>
     </row>
   </sheetData>
@@ -1724,29 +1730,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="2" customWidth="1"/>
     <col min="3" max="3" width="13" style="9" customWidth="1"/>
     <col min="4" max="4" width="13" style="10" customWidth="1"/>
     <col min="5" max="5" width="13" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="11" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
-    <col min="11" max="12" width="12.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="12.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>56</v>
       </c>
@@ -1763,15 +1769,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="6" t="s">
         <v>62</v>
       </c>
@@ -1794,7 +1800,7 @@
         <v>73.650000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>65</v>
       </c>
@@ -1812,7 +1818,7 @@
       </c>
       <c r="M3" s="20"/>
     </row>
-    <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>68</v>
       </c>
@@ -1829,7 +1835,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>69</v>
       </c>
@@ -1846,7 +1852,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>70</v>
       </c>
@@ -1863,7 +1869,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
@@ -1871,15 +1877,15 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="62" t="s">
+    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="6" t="s">
         <v>62</v>
       </c>
@@ -1895,7 +1901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>73</v>
       </c>
@@ -1912,7 +1918,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>75</v>
       </c>
@@ -1929,7 +1935,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>76</v>
       </c>
@@ -1946,15 +1952,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62" t="s">
+    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="6" t="s">
         <v>62</v>
       </c>
@@ -1970,7 +1976,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>78</v>
       </c>
@@ -1987,7 +1993,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>80</v>
       </c>
@@ -2004,7 +2010,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>81</v>
       </c>
@@ -2021,7 +2027,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>82</v>
       </c>
@@ -2038,7 +2044,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>83</v>
       </c>
@@ -2056,7 +2062,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
         <v>125</v>
       </c>
@@ -2074,7 +2080,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
         <v>126</v>
       </c>
@@ -2092,7 +2098,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
         <v>127</v>
       </c>
@@ -2124,7 +2130,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
         <v>128</v>
       </c>
@@ -2143,7 +2149,7 @@
       </c>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
         <v>129</v>
       </c>
@@ -2161,15 +2167,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="64" t="s">
+    <row r="23" spans="1:13" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
       <c r="G23" s="51"/>
       <c r="H23" s="52"/>
       <c r="I23" s="51"/>
@@ -2178,7 +2184,7 @@
       <c r="L23" s="51"/>
       <c r="M23" s="53"/>
     </row>
-    <row r="24" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>85</v>
       </c>
@@ -2202,17 +2208,17 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="62" t="s">
+    <row r="25" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-    </row>
-    <row r="26" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+    </row>
+    <row r="26" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>88</v>
       </c>
@@ -2243,17 +2249,17 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="62" t="s">
+    <row r="27" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-    </row>
-    <row r="28" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+    </row>
+    <row r="28" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>91</v>
       </c>
@@ -2271,7 +2277,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>92</v>
       </c>
@@ -2288,7 +2294,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>93</v>
       </c>
@@ -2305,7 +2311,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
         <v>95</v>
       </c>
@@ -2322,7 +2328,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>105</v>
       </c>
@@ -2340,7 +2346,7 @@
       </c>
       <c r="K32" s="41"/>
     </row>
-    <row r="33" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
         <v>106</v>
       </c>
@@ -2357,7 +2363,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>107</v>
       </c>
@@ -2374,16 +2380,16 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="62" t="s">
+    <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
       <c r="G36" s="6" t="s">
         <v>62</v>
       </c>
@@ -2399,7 +2405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>98</v>
       </c>
@@ -2416,7 +2422,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
         <v>100</v>
       </c>
@@ -2432,7 +2438,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>102</v>
       </c>
@@ -2450,7 +2456,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
         <v>103</v>
       </c>
@@ -2468,7 +2474,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
         <v>104</v>
       </c>
@@ -2486,7 +2492,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="40" t="s">
         <v>108</v>
       </c>
@@ -2503,19 +2509,19 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="5"/>
       <c r="D43" s="27"/>
     </row>
-    <row r="44" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="61" t="s">
+    <row r="44" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
       <c r="G44" s="2" t="s">
         <v>62</v>
       </c>
@@ -2526,7 +2532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
         <v>137</v>
       </c>
@@ -2544,7 +2550,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
         <v>138</v>
       </c>
@@ -2562,168 +2568,186 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="5"/>
-      <c r="D47" s="27"/>
-    </row>
-    <row r="48" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
-        <v>142</v>
-      </c>
+    <row r="47" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="60">
+        <v>1.5</v>
+      </c>
+      <c r="D47" s="36">
+        <v>3.5</v>
+      </c>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="5"/>
       <c r="D48" s="27"/>
     </row>
-    <row r="49" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="67" t="s">
+    <row r="49" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="27"/>
+    </row>
+    <row r="50" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="B49" s="67" t="s">
+      <c r="B50" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="68">
+      <c r="C50" s="63">
         <v>3</v>
       </c>
-      <c r="D49" s="69"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67" t="s">
+      <c r="D50" s="64"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="67" t="s">
+    <row r="51" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="B50" s="67"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67" t="s">
+      <c r="B51" s="62"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="67" t="s">
+    <row r="52" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="B51" s="67"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67" t="s">
+      <c r="B52" s="62"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="70" t="s">
+    <row r="53" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="B52" s="70" t="s">
+      <c r="B53" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="71" t="s">
+      <c r="C53" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="D52" s="72">
+      <c r="D53" s="67">
         <v>0.25</v>
       </c>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="70" t="s">
+      <c r="E53" s="65"/>
+      <c r="F53" s="65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="B53" s="70" t="s">
+      <c r="B54" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="71">
+      <c r="C54" s="66">
         <v>1</v>
       </c>
-      <c r="D53" s="72">
+      <c r="D54" s="67">
         <v>0.75</v>
       </c>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="5"/>
-      <c r="D54" s="27"/>
-    </row>
-    <row r="55" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E54" s="65"/>
+      <c r="F54" s="65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="5"/>
       <c r="D55" s="27"/>
     </row>
-    <row r="56" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="5"/>
       <c r="D56" s="27"/>
     </row>
-    <row r="57" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" s="5"/>
       <c r="D57" s="27"/>
     </row>
-    <row r="58" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="5"/>
       <c r="D58" s="27"/>
     </row>
-    <row r="59" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" s="5"/>
       <c r="D59" s="27"/>
     </row>
-    <row r="60" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" s="5"/>
       <c r="D60" s="27"/>
     </row>
-    <row r="61" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="5"/>
       <c r="D61" s="27"/>
     </row>
-    <row r="62" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="5"/>
       <c r="D62" s="27"/>
     </row>
-    <row r="63" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63" s="5"/>
       <c r="D63" s="27"/>
     </row>
-    <row r="64" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="5"/>
       <c r="D64" s="27"/>
     </row>
-    <row r="65" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="5"/>
       <c r="D65" s="27"/>
     </row>
-    <row r="66" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" s="5"/>
       <c r="D66" s="27"/>
     </row>
-    <row r="67" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="5"/>
       <c r="D67" s="27"/>
     </row>
-    <row r="68" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C68" s="5"/>
       <c r="D68" s="27"/>
     </row>
-    <row r="69" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C69" s="5"/>
       <c r="D69" s="27"/>
     </row>
-    <row r="70" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C70" s="5"/>
       <c r="D70" s="27"/>
     </row>
-    <row r="71" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C71" s="5"/>
       <c r="D71" s="27"/>
     </row>
-    <row r="72" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C72" s="5"/>
       <c r="D72" s="27"/>
+    </row>
+    <row r="73" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="5"/>
+      <c r="D73" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Requisitos-Tareas.xlsx
+++ b/Requisitos-Tareas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seren\evently\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EXCALOFRIO\Desktop\PRACTICA\evently\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DC5A45-59E1-48CC-98F6-84DF0485950D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD9D7E0-1FA6-4834-8813-CF21A6567555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="162">
   <si>
     <t>ID REQUISITO</t>
   </si>
@@ -492,6 +492,36 @@
   </si>
   <si>
     <t>Botón para ver mis fiestas</t>
+  </si>
+  <si>
+    <t>Añadir botones en vez de lista</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>Mejora codigo para mas agil</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Añadir Scroll Bar</t>
+  </si>
+  <si>
+    <t>Mejorar el path de la aplicación</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>Ayuda a Serena con metodo devolver fiestas creadas por usuario</t>
+  </si>
+  <si>
+    <t>0.2</t>
   </si>
 </sst>
 </file>
@@ -553,7 +583,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,6 +632,18 @@
         <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -639,19 +681,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -659,38 +694,32 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -700,122 +729,127 @@
     <xf numFmtId="4" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1204,511 +1238,511 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="37" style="5" customWidth="1"/>
-    <col min="3" max="3" width="134" style="5" customWidth="1"/>
-    <col min="4" max="4" width="155.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.68359375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="134" customWidth="1"/>
+    <col min="4" max="4" width="155.26171875" customWidth="1"/>
+    <col min="5" max="5" width="12.15625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.41796875" customWidth="1"/>
+    <col min="7" max="7" width="10.68359375" customWidth="1"/>
+    <col min="9" max="9" width="16.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="6">
         <v>2</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="9">
         <v>44841</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+    <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="6">
         <v>2</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="9">
         <v>44841</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <v>13</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="9">
         <v>44848</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+    <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>3</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="9">
         <v>44841</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>2</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="9">
         <v>44841</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="6">
         <v>8</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="9">
         <v>44841</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="9">
         <v>44848</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+    <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="2">
         <v>8</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="9">
         <v>44848</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="17"/>
+    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1718,1080 +1752,1087 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13" style="18" customWidth="1"/>
-    <col min="4" max="4" width="13" style="19" customWidth="1"/>
-    <col min="5" max="5" width="13" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="4" customWidth="1"/>
-    <col min="11" max="12" width="12.42578125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="43.68359375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="13" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13" style="14" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="13.68359375" customWidth="1"/>
+    <col min="7" max="7" width="12.41796875" customWidth="1"/>
+    <col min="8" max="8" width="12.41796875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="11.83984375" customWidth="1"/>
+    <col min="10" max="10" width="12.41796875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="12.41796875" customWidth="1"/>
+    <col min="13" max="13" width="12.41796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="10" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="6">
         <f>D3+D4+D5+D6+D37</f>
         <v>24</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="6">
         <f>SUM(C3:C7)</f>
         <v>19</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="6">
         <f>SUM(H2,H12,H8,H20,H24,H26,H36)</f>
         <v>73.650000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="21">
         <v>3</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="22">
         <v>4.5</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3" s="29"/>
-    </row>
-    <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="F3" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="24"/>
+    </row>
+    <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="21">
         <v>8</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="21">
         <v>3</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="F4" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="21">
         <v>3</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="22">
         <v>5</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="F5" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="21">
         <v>5</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="22">
         <v>3</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="6">
         <f>SUM(D9:D11)</f>
         <v>7</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="6">
         <f>SUM(C9:C11)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="29">
         <v>2</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="30">
         <v>2</v>
       </c>
-      <c r="F9" s="37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="F9" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="29">
         <v>2</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="30">
         <v>3</v>
       </c>
-      <c r="F10" s="37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="F10" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="29">
         <v>4</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="30">
         <v>2</v>
       </c>
-      <c r="F11" s="37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="F11" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="10" t="s">
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="6">
         <f>SUM(D13:D19)</f>
         <v>8.25</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="6">
         <f>SUM(C13:C19)</f>
         <v>7.5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+    <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="33">
         <v>1</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="34">
         <v>1</v>
       </c>
-      <c r="F13" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="F13" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="33">
         <v>1</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="34">
         <v>2</v>
       </c>
-      <c r="F14" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="F14" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="33">
         <v>2</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="34">
         <v>1.5</v>
       </c>
-      <c r="F15" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="F15" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="33">
         <v>1</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="34">
         <v>2</v>
       </c>
-      <c r="F16" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+      <c r="F16" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="33">
         <v>0.5</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="34">
         <v>0.5</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="35">
         <v>1</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="22">
         <v>0.5</v>
       </c>
-      <c r="F18" s="43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="F18" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="35">
         <v>1</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="22">
         <v>0.75</v>
       </c>
-      <c r="F19" s="43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="F19" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="35">
         <v>1</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="22">
         <v>0.5</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="10" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="14">
         <f>SUM(D21:D24)</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="6">
         <f>SUM(C21:C24)</f>
         <v>9.5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+    <row r="21" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="35">
         <v>1</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="22">
         <v>0.5</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="J21" s="29"/>
-    </row>
-    <row r="22" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="35">
         <v>0.5</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="22">
         <v>0.3</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="49" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="E22" s="7"/>
+      <c r="F22" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="48"/>
-    </row>
-    <row r="24" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+    </row>
+    <row r="24" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="21">
         <v>8</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="22">
         <v>8.5</v>
       </c>
-      <c r="F24" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="10" t="s">
+      <c r="F24" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="14">
         <f>SUM(D26)</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+    </row>
+    <row r="26" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C26" s="33">
         <v>0</v>
       </c>
-      <c r="D26" s="40">
+      <c r="D26" s="34">
         <v>3.5</v>
       </c>
-      <c r="F26" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="10" t="s">
+      <c r="F26" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26" s="14">
         <f>SUM(D28:D34)</f>
         <v>12.100000000000001</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="6">
         <f>SUM(C28:C34)</f>
         <v>12.5</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+    </row>
+    <row r="28" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="21">
         <v>3</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="22">
         <v>4.5</v>
       </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="E28" s="1"/>
+      <c r="F28" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="21">
         <v>1</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="22">
         <v>0.5</v>
       </c>
-      <c r="F29" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="F29" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="21">
         <v>2</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="22">
         <v>1</v>
       </c>
-      <c r="F30" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="51" t="s">
+      <c r="F30" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="53">
+      <c r="C31" s="40">
         <v>1</v>
       </c>
-      <c r="D31" s="54">
+      <c r="D31" s="41">
         <v>0.4</v>
       </c>
-      <c r="F31" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
+      <c r="F31" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="53">
+      <c r="C32" s="40">
         <v>1</v>
       </c>
-      <c r="D32" s="54">
+      <c r="D32" s="41">
         <v>1.2</v>
       </c>
-      <c r="F32" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="K32" s="55"/>
-    </row>
-    <row r="33" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51" t="s">
+      <c r="F32" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="K32" s="42"/>
+    </row>
+    <row r="33" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="53">
+      <c r="C33" s="40">
         <v>2</v>
       </c>
-      <c r="D33" s="54">
+      <c r="D33" s="41">
         <v>1.5</v>
       </c>
-      <c r="F33" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
+      <c r="F33" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="C34" s="53">
+      <c r="C34" s="40">
         <v>2.5</v>
       </c>
-      <c r="D34" s="54">
+      <c r="D34" s="41">
         <v>3</v>
       </c>
-      <c r="F34" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="F34" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="10" t="s">
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H36" s="45">
+      <c r="H36" s="14">
         <f>SUM(D37:D39)</f>
         <v>9.5</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I36" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="6">
         <f>SUM(C37:C39)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+    <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="21">
         <v>5</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37" s="22">
         <v>8.5</v>
       </c>
-      <c r="F37" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
+      <c r="F37" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="29">
         <v>3</v>
       </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="51" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="57" t="s">
+      <c r="D38" s="43"/>
+      <c r="F38" s="38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="59">
+      <c r="C39" s="45">
         <v>1</v>
       </c>
-      <c r="D39" s="60">
+      <c r="D39" s="46">
         <v>1</v>
       </c>
-      <c r="E39" s="46"/>
-      <c r="F39" s="57" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="61" t="s">
+      <c r="F39" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="53">
+      <c r="C40" s="40">
         <v>1</v>
       </c>
-      <c r="D40" s="54">
+      <c r="D40" s="41">
         <v>2.5</v>
       </c>
-      <c r="E40" s="46"/>
-      <c r="F40" s="61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="61" t="s">
+      <c r="F40" s="47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="53">
+      <c r="C41" s="40">
         <v>1</v>
       </c>
-      <c r="D41" s="54">
+      <c r="D41" s="41">
         <v>1.5</v>
       </c>
-      <c r="E41" s="46"/>
-      <c r="F41" s="61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="51" t="s">
+      <c r="F41" s="47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="53">
+      <c r="C42" s="40">
         <v>2</v>
       </c>
-      <c r="D42" s="54">
+      <c r="D42" s="41">
         <v>2</v>
       </c>
-      <c r="F42" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="9"/>
-      <c r="D43" s="45"/>
-    </row>
-    <row r="44" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="F42" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="44" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="5" t="s">
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" t="s">
         <v>87</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="15">
         <v>11</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I44" t="s">
         <v>88</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="61" t="s">
+    <row r="45" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="62">
+      <c r="C45" s="48">
         <v>4</v>
       </c>
-      <c r="D45" s="54">
+      <c r="D45" s="41">
         <v>5</v>
       </c>
-      <c r="E45" s="69"/>
-      <c r="F45" s="61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="61" t="s">
+      <c r="F45" s="47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="62">
+      <c r="C46" s="48">
         <v>1.5</v>
       </c>
-      <c r="D46" s="54">
+      <c r="D46" s="41">
         <v>2</v>
       </c>
-      <c r="E46" s="69"/>
-      <c r="F46" s="61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="61" t="s">
+      <c r="F46" s="47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="C47" s="62">
+      <c r="C47" s="48">
         <v>1.5</v>
       </c>
-      <c r="D47" s="54">
+      <c r="D47" s="41">
         <v>3.5</v>
       </c>
-      <c r="E47" s="69"/>
-      <c r="F47" s="61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" s="49" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="61" t="s">
+      <c r="F47" s="47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="62">
+      <c r="C48" s="48">
         <v>1</v>
       </c>
-      <c r="D48" s="54">
+      <c r="D48" s="41">
         <v>1</v>
       </c>
-      <c r="E48" s="69"/>
-      <c r="F48" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="G48" s="46"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="48"/>
-    </row>
-    <row r="49" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="9"/>
-      <c r="D49" s="45"/>
-    </row>
-    <row r="50" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
+      <c r="F48" s="47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" s="63"/>
+      <c r="F49" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="49"/>
+      <c r="B50" s="49"/>
+      <c r="F50" s="49"/>
+    </row>
+    <row r="51" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" t="s">
         <v>144</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="45"/>
-      <c r="G50" s="5" t="s">
+      <c r="G51" t="s">
         <v>5</v>
       </c>
-      <c r="H50" s="20">
-        <f>SUM(D51:D55)</f>
-        <v>8.5</v>
-      </c>
-      <c r="I50" s="5" t="s">
+      <c r="H51" s="15">
+        <f>SUM(D52:D60)</f>
+        <v>12.5</v>
+      </c>
+      <c r="I51" t="s">
         <v>4</v>
       </c>
-      <c r="J50" s="4">
-        <f>SUM(C51:C55)</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="63" t="s">
+      <c r="J51" s="2">
+        <f>SUM(C52:C60)</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="B51" s="63" t="s">
+      <c r="B52" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="C51" s="64">
+      <c r="C52" s="50">
         <v>3</v>
       </c>
-      <c r="D51" s="65">
+      <c r="D52" s="51">
         <v>3</v>
       </c>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63" t="s">
+      <c r="E52" s="49"/>
+      <c r="F52" s="49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="63" t="s">
+    <row r="53" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B52" s="63" t="s">
+      <c r="B53" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="C52" s="64">
+      <c r="C53" s="50">
         <v>3</v>
       </c>
-      <c r="D52" s="65">
+      <c r="D53" s="51">
         <v>4</v>
       </c>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63" t="s">
+      <c r="E53" s="49"/>
+      <c r="F53" s="49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="63" t="s">
+    <row r="54" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="59">
+        <v>2</v>
+      </c>
+      <c r="D54" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="61">
+        <v>1</v>
+      </c>
+      <c r="D55" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="E55" s="63"/>
+      <c r="F55" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="61">
+        <v>1</v>
+      </c>
+      <c r="D56" s="62">
+        <v>4</v>
+      </c>
+      <c r="E56" s="63"/>
+      <c r="F56" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" s="63"/>
+      <c r="F57" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="B53" s="63" t="s">
+      <c r="B58" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="C53" s="64">
-        <f>D53</f>
+      <c r="C58" s="59">
+        <f>D58</f>
         <v>0.5</v>
       </c>
-      <c r="D53" s="65">
+      <c r="D58" s="60">
         <v>0.5</v>
       </c>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63" t="s">
+      <c r="E58" s="58"/>
+      <c r="F58" s="58" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="66" t="s">
+    <row r="59" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="B54" s="66" t="s">
+      <c r="B59" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="67" t="s">
+      <c r="C59" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="D54" s="68">
+      <c r="D59" s="54">
         <v>0.25</v>
       </c>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="66" t="s">
+      <c r="E59" s="52"/>
+      <c r="F59" s="52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="B55" s="66" t="s">
+      <c r="B60" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="67">
+      <c r="C60" s="53">
         <v>1</v>
       </c>
-      <c r="D55" s="68">
+      <c r="D60" s="54">
         <v>0.75</v>
       </c>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="9"/>
-      <c r="D56" s="45"/>
-    </row>
-    <row r="57" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="9"/>
-      <c r="D57" s="45"/>
-    </row>
-    <row r="58" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="9"/>
-      <c r="D58" s="45"/>
-    </row>
-    <row r="59" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="9"/>
-      <c r="D59" s="45"/>
-    </row>
-    <row r="60" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="9"/>
-      <c r="D60" s="45"/>
-    </row>
-    <row r="61" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="9"/>
-      <c r="D61" s="45"/>
-    </row>
-    <row r="62" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="9"/>
-      <c r="D62" s="45"/>
-    </row>
-    <row r="63" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="9"/>
-      <c r="D63" s="45"/>
-    </row>
-    <row r="64" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="9"/>
-      <c r="D64" s="45"/>
-    </row>
-    <row r="65" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="9"/>
-      <c r="D65" s="45"/>
-    </row>
-    <row r="66" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="9"/>
-      <c r="D66" s="45"/>
-    </row>
-    <row r="67" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="9"/>
-      <c r="D67" s="45"/>
-    </row>
-    <row r="68" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
-      <c r="D68" s="45"/>
-    </row>
-    <row r="69" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
-      <c r="D69" s="45"/>
-    </row>
-    <row r="70" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
-      <c r="D70" s="45"/>
-    </row>
-    <row r="71" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
-      <c r="D71" s="45"/>
-    </row>
-    <row r="72" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
-      <c r="D72" s="45"/>
-    </row>
-    <row r="73" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
-      <c r="D73" s="45"/>
-    </row>
-    <row r="74" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
-      <c r="D74" s="45"/>
-    </row>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="62" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="63" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="64" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="65" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="66" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="67" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="68" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="69" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="70" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="71" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="72" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="73" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="74" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="75" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="76" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="77" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="78" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="79" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A27:F27"/>

--- a/Requisitos-Tareas.xlsx
+++ b/Requisitos-Tareas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seren\evently\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablo/Documents/IngenieriaSoft/even_dysco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFFC320-A6AD-4B18-B452-369CBB2DD3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767A9D95-B282-F744-A05B-ADCA9BC75F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="188">
   <si>
     <t>ID REQUISITO</t>
   </si>
@@ -570,6 +570,36 @@
   </si>
   <si>
     <t>avisos pop-up</t>
+  </si>
+  <si>
+    <t>Requisito: Aplicacion Movil</t>
+  </si>
+  <si>
+    <t>Tutoriales framework Kivy</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>Enfermo</t>
+  </si>
+  <si>
+    <t>1 semana</t>
+  </si>
+  <si>
+    <t>Pair programming</t>
+  </si>
+  <si>
+    <t>Interfaz grafica kivy</t>
+  </si>
+  <si>
+    <t>APK</t>
+  </si>
+  <si>
+    <t>Joaquing</t>
+  </si>
+  <si>
+    <t>Tutoriales creacion apk</t>
   </si>
 </sst>
 </file>
@@ -729,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -899,19 +929,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1005,7 +1038,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1307,19 +1340,19 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
     <col min="3" max="3" width="134" customWidth="1"/>
-    <col min="4" max="4" width="155.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="155.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1374,7 +1407,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1400,7 +1433,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1426,7 +1459,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1444,7 +1477,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1462,7 +1495,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1488,7 +1521,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1508,7 +1541,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1526,7 +1559,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1552,7 +1585,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1578,7 +1611,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1596,7 +1629,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1614,7 +1647,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1632,7 +1665,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1650,7 +1683,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1670,7 +1703,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1688,7 +1721,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1706,7 +1739,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1724,7 +1757,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1742,7 +1775,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1765,7 +1798,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1791,7 +1824,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1808,9 +1841,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="12"/>
     </row>
   </sheetData>
@@ -1821,29 +1854,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="13" style="5" customWidth="1"/>
     <col min="4" max="4" width="13" style="13" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="12.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="14" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>81</v>
       </c>
@@ -1860,15 +1893,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="6" t="s">
         <v>87</v>
       </c>
@@ -1891,7 +1924,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>90</v>
       </c>
@@ -1909,7 +1942,7 @@
       </c>
       <c r="M3" s="25"/>
     </row>
-    <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>93</v>
       </c>
@@ -1926,7 +1959,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>94</v>
       </c>
@@ -1943,7 +1976,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>95</v>
       </c>
@@ -1960,7 +1993,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="27"/>
@@ -1968,7 +2001,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="66" t="s">
         <v>97</v>
       </c>
@@ -1992,7 +2025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>98</v>
       </c>
@@ -2009,7 +2042,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>100</v>
       </c>
@@ -2026,7 +2059,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
         <v>101</v>
       </c>
@@ -2043,7 +2076,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="66" t="s">
         <v>102</v>
       </c>
@@ -2067,7 +2100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="33" t="s">
         <v>103</v>
       </c>
@@ -2084,7 +2117,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
         <v>105</v>
       </c>
@@ -2101,7 +2134,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
         <v>106</v>
       </c>
@@ -2118,7 +2151,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
         <v>107</v>
       </c>
@@ -2135,7 +2168,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
         <v>108</v>
       </c>
@@ -2153,7 +2186,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>109</v>
       </c>
@@ -2170,7 +2203,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>110</v>
       </c>
@@ -2187,7 +2220,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>111</v>
       </c>
@@ -2207,7 +2240,7 @@
       <c r="H20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>112</v>
       </c>
@@ -2226,7 +2259,7 @@
       </c>
       <c r="J21" s="25"/>
     </row>
-    <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
         <v>113</v>
       </c>
@@ -2244,15 +2277,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
+    <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="6" t="s">
         <v>87</v>
       </c>
@@ -2268,7 +2301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
         <v>115</v>
       </c>
@@ -2287,7 +2320,7 @@
       <c r="H24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="66" t="s">
         <v>117</v>
       </c>
@@ -2304,7 +2337,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="38" t="s">
         <v>118</v>
       </c>
@@ -2322,7 +2355,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="s">
         <v>118</v>
       </c>
@@ -2338,7 +2371,7 @@
       <c r="E27" s="39"/>
       <c r="F27" s="39"/>
     </row>
-    <row r="28" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="33" t="s">
         <v>120</v>
       </c>
@@ -2357,7 +2390,7 @@
       <c r="H28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="66" t="s">
         <v>122</v>
       </c>
@@ -2381,7 +2414,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="26" t="s">
         <v>123</v>
       </c>
@@ -2399,7 +2432,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="26" t="s">
         <v>124</v>
       </c>
@@ -2416,7 +2449,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="26" t="s">
         <v>125</v>
       </c>
@@ -2433,7 +2466,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="42" t="s">
         <v>127</v>
       </c>
@@ -2450,7 +2483,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="42" t="s">
         <v>128</v>
       </c>
@@ -2468,7 +2501,7 @@
       </c>
       <c r="K34" s="46"/>
     </row>
-    <row r="35" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="42" t="s">
         <v>129</v>
       </c>
@@ -2485,7 +2518,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="42" t="s">
         <v>130</v>
       </c>
@@ -2502,8 +2535,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="66" t="s">
         <v>131</v>
       </c>
@@ -2527,7 +2560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
         <v>132</v>
       </c>
@@ -2544,7 +2577,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="29" t="s">
         <v>134</v>
       </c>
@@ -2559,7 +2592,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="37" t="s">
         <v>136</v>
       </c>
@@ -2576,7 +2609,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="50" t="s">
         <v>137</v>
       </c>
@@ -2593,7 +2626,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="50" t="s">
         <v>138</v>
       </c>
@@ -2610,7 +2643,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="42" t="s">
         <v>139</v>
       </c>
@@ -2627,8 +2660,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="66" t="s">
         <v>140</v>
       </c>
@@ -2652,7 +2685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="50" t="s">
         <v>141</v>
       </c>
@@ -2669,7 +2702,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="50" t="s">
         <v>142</v>
       </c>
@@ -2686,7 +2719,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="50" t="s">
         <v>143</v>
       </c>
@@ -2703,7 +2736,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="50" t="s">
         <v>145</v>
       </c>
@@ -2720,7 +2753,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="50" t="s">
         <v>146</v>
       </c>
@@ -2738,7 +2771,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="52" t="s">
         <v>150</v>
       </c>
@@ -2750,15 +2783,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="67" t="s">
+    <row r="53" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="B53" s="67"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
       <c r="G53" t="s">
         <v>5</v>
       </c>
@@ -2774,7 +2807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="37" t="s">
         <v>141</v>
       </c>
@@ -2792,7 +2825,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="37" t="s">
         <v>152</v>
       </c>
@@ -2810,7 +2843,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="50" t="s">
         <v>154</v>
       </c>
@@ -2828,7 +2861,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="50" t="s">
         <v>156</v>
       </c>
@@ -2846,7 +2879,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="50" t="s">
         <v>157</v>
       </c>
@@ -2864,7 +2897,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="50" t="s">
         <v>158</v>
       </c>
@@ -2882,7 +2915,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="50" t="s">
         <v>160</v>
       </c>
@@ -2901,7 +2934,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="37" t="s">
         <v>161</v>
       </c>
@@ -2919,7 +2952,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="37" t="s">
         <v>163</v>
       </c>
@@ -2937,7 +2970,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="37" t="s">
         <v>164</v>
       </c>
@@ -2955,7 +2988,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="37" t="s">
         <v>165</v>
       </c>
@@ -2973,7 +3006,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="37" t="s">
         <v>166</v>
       </c>
@@ -2991,15 +3024,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="67" t="s">
+    <row r="66" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="B66" s="67"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="69"/>
       <c r="G66" t="s">
         <v>87</v>
       </c>
@@ -3015,7 +3048,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="37" t="s">
         <v>168</v>
       </c>
@@ -3033,7 +3066,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="37" t="s">
         <v>169</v>
       </c>
@@ -3051,7 +3084,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="57" t="s">
         <v>170</v>
       </c>
@@ -3069,18 +3102,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="65" t="s">
+    <row r="70" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="65"/>
-      <c r="F71" s="65"/>
-    </row>
-    <row r="72" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+    </row>
+    <row r="72" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="60" t="s">
         <v>172</v>
       </c>
@@ -3110,7 +3143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="60" t="s">
         <v>173</v>
       </c>
@@ -3128,7 +3161,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="60" t="s">
         <v>174</v>
       </c>
@@ -3146,7 +3179,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="60" t="s">
         <v>175</v>
       </c>
@@ -3164,7 +3197,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="60" t="s">
         <v>177</v>
       </c>
@@ -3182,24 +3215,150 @@
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="70" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" s="70"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="70"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="70"/>
+    </row>
+    <row r="79" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="B79" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D79" s="13">
+        <v>3</v>
+      </c>
+      <c r="F79" s="60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" s="5">
+        <v>0</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="F80" s="60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="B81" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C81" s="5">
+        <v>0</v>
+      </c>
+      <c r="D81" s="13">
+        <v>2</v>
+      </c>
+      <c r="F81" s="60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="B82" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" s="5">
+        <v>2</v>
+      </c>
+      <c r="D82" s="13">
+        <v>3</v>
+      </c>
+      <c r="F82" s="60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="B83" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" s="5">
+        <v>1</v>
+      </c>
+      <c r="D83" s="13">
+        <v>2</v>
+      </c>
+      <c r="F83" s="60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="B84" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C84" s="5">
+        <v>0</v>
+      </c>
+      <c r="D84" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="F84" s="60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="B85" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C85" s="5">
+        <v>1</v>
+      </c>
+      <c r="D85" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="F85" s="60" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A25:F25"/>
+  <mergeCells count="12">
+    <mergeCell ref="A78:F78"/>
     <mergeCell ref="A71:F71"/>
     <mergeCell ref="A29:F29"/>
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="A46:F46"/>
     <mergeCell ref="A53:F53"/>
     <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Requisitos-Tareas.xlsx
+++ b/Requisitos-Tareas.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="220">
   <si>
     <t xml:space="preserve">ID REQUISITO</t>
   </si>
@@ -667,6 +667,21 @@
   </si>
   <si>
     <t xml:space="preserve">Cambiar color del tema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requisito: Busqueda de usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear Interfaz básica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear botones usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear interfaz final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear funcionalidad</t>
   </si>
 </sst>
 </file>
@@ -964,50 +979,54 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1098,10 +1117,6 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1191,7 +1206,7 @@
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1717,10 +1732,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A69" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D99" activeCellId="0" sqref="D99"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I100" activeCellId="0" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1731,7 +1746,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="14" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="14" width="11.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="12.51"/>
@@ -1782,8 +1797,8 @@
         <v>89</v>
       </c>
       <c r="M2" s="20" t="n">
-        <f aca="false">SUM(H2,H12,H8,H23,H25,H29,,H38,H46,H53,H66)</f>
-        <v>127.9</v>
+        <f aca="false">SUM(H2,H12,H8,H23,H25,H29,,H38,H46,H53,H66,H79)</f>
+        <v>217.4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1802,7 +1817,13 @@
       <c r="F3" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="M3" s="24"/>
+      <c r="L3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="20" t="n">
+        <f aca="false">SUM(J2,J8,J12,J23,J29,J38,J46,J53,J66,J72,J79)</f>
+        <v>140</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="s">
@@ -2117,7 +2138,7 @@
       <c r="F21" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="J21" s="24"/>
+      <c r="J21" s="35"/>
     </row>
     <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
@@ -2138,14 +2159,14 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
       <c r="G23" s="6" t="s">
         <v>87</v>
       </c>
@@ -2196,38 +2217,38 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="38" t="n">
+      <c r="C26" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="D26" s="37" t="n">
+      <c r="D26" s="38" t="n">
         <v>6</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37" t="s">
+      <c r="E26" s="38"/>
+      <c r="F26" s="38" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="38" t="n">
+      <c r="C27" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="D27" s="37" t="n">
+      <c r="D27" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
     </row>
     <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="32" t="s">
@@ -2242,7 +2263,7 @@
       <c r="D28" s="33" t="n">
         <v>3.5</v>
       </c>
-      <c r="F28" s="39" t="s">
+      <c r="F28" s="40" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2283,7 +2304,7 @@
       <c r="D30" s="22" t="n">
         <v>4.5</v>
       </c>
-      <c r="E30" s="40"/>
+      <c r="E30" s="41"/>
       <c r="F30" s="26" t="s">
         <v>92</v>
       </c>
@@ -2323,16 +2344,16 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="43" t="n">
+      <c r="C33" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="D33" s="44" t="n">
+      <c r="D33" s="45" t="n">
         <v>0.4</v>
       </c>
       <c r="F33" s="26" t="s">
@@ -2340,34 +2361,34 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="43" t="n">
+      <c r="C34" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="44" t="n">
+      <c r="D34" s="45" t="n">
         <v>1.2</v>
       </c>
       <c r="F34" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="K34" s="45"/>
+      <c r="K34" s="46"/>
     </row>
     <row r="35" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="43" t="n">
+      <c r="C35" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="D35" s="44" t="n">
+      <c r="D35" s="45" t="n">
         <v>1.5</v>
       </c>
       <c r="F35" s="26" t="s">
@@ -2375,16 +2396,16 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="43" t="n">
+      <c r="C36" s="44" t="n">
         <v>2.5</v>
       </c>
-      <c r="D36" s="44" t="n">
+      <c r="D36" s="45" t="n">
         <v>3</v>
       </c>
       <c r="F36" s="26" t="s">
@@ -2443,8 +2464,8 @@
       <c r="C40" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="D40" s="46"/>
-      <c r="F40" s="41" t="s">
+      <c r="D40" s="47"/>
+      <c r="F40" s="42" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2452,13 +2473,13 @@
       <c r="A41" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="47" t="n">
+      <c r="C41" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="D41" s="48" t="n">
+      <c r="D41" s="49" t="n">
         <v>1</v>
       </c>
       <c r="F41" s="34" t="s">
@@ -2466,50 +2487,50 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="43" t="n">
+      <c r="C42" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="D42" s="44" t="n">
+      <c r="D42" s="45" t="n">
         <v>2.5</v>
       </c>
-      <c r="F42" s="49" t="s">
+      <c r="F42" s="50" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="43" t="n">
+      <c r="C43" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="D43" s="44" t="n">
+      <c r="D43" s="45" t="n">
         <v>1.5</v>
       </c>
-      <c r="F43" s="49" t="s">
+      <c r="F43" s="50" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="43" t="n">
+      <c r="C44" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="D44" s="44" t="n">
+      <c r="D44" s="45" t="n">
         <v>2</v>
       </c>
       <c r="F44" s="26" t="s">
@@ -2542,100 +2563,100 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="44" t="n">
+      <c r="C47" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="D47" s="44" t="n">
+      <c r="D47" s="45" t="n">
         <v>5</v>
       </c>
-      <c r="F47" s="49" t="s">
+      <c r="F47" s="50" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="44" t="n">
+      <c r="C48" s="45" t="n">
         <v>1.5</v>
       </c>
-      <c r="D48" s="44" t="n">
+      <c r="D48" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="F48" s="49" t="s">
+      <c r="F48" s="50" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="49" t="s">
+      <c r="A49" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="44" t="n">
+      <c r="C49" s="45" t="n">
         <v>1.5</v>
       </c>
-      <c r="D49" s="44" t="n">
+      <c r="D49" s="45" t="n">
         <v>3.5</v>
       </c>
-      <c r="F49" s="49" t="s">
+      <c r="F49" s="50" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="49" t="s">
+      <c r="A50" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="44" t="n">
+      <c r="C50" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="D50" s="44" t="n">
+      <c r="D50" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="F50" s="49" t="s">
+      <c r="F50" s="50" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="49" t="s">
+      <c r="A51" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="B51" s="49" t="s">
+      <c r="B51" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="44" t="s">
+      <c r="C51" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="D51" s="44" t="s">
+      <c r="D51" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49" t="s">
+      <c r="E51" s="50"/>
+      <c r="F51" s="50" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="50" t="s">
+      <c r="A52" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="B52" s="50"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="50" t="s">
+      <c r="B52" s="51"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="51" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2670,10 +2691,10 @@
       <c r="B54" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="48" t="n">
+      <c r="C54" s="49" t="n">
         <v>3</v>
       </c>
-      <c r="D54" s="48" t="n">
+      <c r="D54" s="49" t="n">
         <v>5</v>
       </c>
       <c r="E54" s="34"/>
@@ -2688,10 +2709,10 @@
       <c r="B55" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="48" t="n">
+      <c r="C55" s="49" t="n">
         <v>3</v>
       </c>
-      <c r="D55" s="48" t="n">
+      <c r="D55" s="49" t="n">
         <v>4.5</v>
       </c>
       <c r="E55" s="34"/>
@@ -2700,93 +2721,93 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="49" t="s">
+      <c r="A56" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="C56" s="44" t="n">
+      <c r="C56" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="D56" s="44" t="s">
+      <c r="D56" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49" t="s">
+      <c r="E56" s="50"/>
+      <c r="F56" s="50" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="49" t="s">
+      <c r="A57" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="C57" s="44" t="n">
+      <c r="C57" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="D57" s="44" t="s">
+      <c r="D57" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49" t="s">
+      <c r="E57" s="50"/>
+      <c r="F57" s="50" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="49" t="s">
+      <c r="A58" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="B58" s="49" t="s">
+      <c r="B58" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="C58" s="44" t="n">
+      <c r="C58" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="D58" s="44" t="n">
+      <c r="D58" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49" t="s">
+      <c r="E58" s="50"/>
+      <c r="F58" s="50" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="49" t="s">
+      <c r="A59" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="C59" s="44" t="s">
+      <c r="C59" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="D59" s="44" t="s">
+      <c r="D59" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49" t="s">
+      <c r="E59" s="50"/>
+      <c r="F59" s="50" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="49" t="s">
+      <c r="A60" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="B60" s="49" t="s">
+      <c r="B60" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="44" t="n">
+      <c r="C60" s="45" t="n">
         <f aca="false">D60</f>
         <v>1</v>
       </c>
-      <c r="D60" s="44" t="n">
+      <c r="D60" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49" t="s">
+      <c r="E60" s="50"/>
+      <c r="F60" s="50" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2797,10 +2818,10 @@
       <c r="B61" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="48" t="s">
+      <c r="C61" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="D61" s="48" t="n">
+      <c r="D61" s="49" t="n">
         <v>0.25</v>
       </c>
       <c r="E61" s="34"/>
@@ -2815,10 +2836,10 @@
       <c r="B62" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="C62" s="48" t="n">
+      <c r="C62" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="D62" s="48" t="n">
+      <c r="D62" s="49" t="n">
         <v>2</v>
       </c>
       <c r="E62" s="34"/>
@@ -2833,10 +2854,10 @@
       <c r="B63" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C63" s="48" t="n">
+      <c r="C63" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="D63" s="48" t="n">
+      <c r="D63" s="49" t="n">
         <v>2.5</v>
       </c>
       <c r="E63" s="34"/>
@@ -2851,10 +2872,10 @@
       <c r="B64" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C64" s="48" t="n">
+      <c r="C64" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="D64" s="48" t="n">
+      <c r="D64" s="49" t="n">
         <v>3</v>
       </c>
       <c r="E64" s="34"/>
@@ -2869,10 +2890,10 @@
       <c r="B65" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C65" s="48" t="n">
+      <c r="C65" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="D65" s="48" t="s">
+      <c r="D65" s="49" t="s">
         <v>155</v>
       </c>
       <c r="E65" s="34"/>
@@ -2911,10 +2932,10 @@
       <c r="B67" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C67" s="48" t="n">
+      <c r="C67" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="D67" s="48" t="n">
+      <c r="D67" s="49" t="n">
         <v>1</v>
       </c>
       <c r="E67" s="34"/>
@@ -2929,10 +2950,10 @@
       <c r="B68" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C68" s="48" t="n">
+      <c r="C68" s="49" t="n">
         <v>1.5</v>
       </c>
-      <c r="D68" s="48" t="n">
+      <c r="D68" s="49" t="n">
         <v>2</v>
       </c>
       <c r="E68" s="34"/>
@@ -2941,20 +2962,20 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="53" t="s">
+      <c r="A69" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="B69" s="53" t="s">
+      <c r="B69" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="C69" s="54" t="n">
+      <c r="C69" s="55" t="n">
         <v>1</v>
       </c>
-      <c r="D69" s="54" t="n">
+      <c r="D69" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53" t="s">
+      <c r="E69" s="54"/>
+      <c r="F69" s="54" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2970,20 +2991,20 @@
       <c r="F71" s="28"/>
     </row>
     <row r="72" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="55" t="s">
+      <c r="A72" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="B72" s="55" t="s">
+      <c r="B72" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C72" s="56" t="n">
+      <c r="C72" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="D72" s="56" t="n">
+      <c r="D72" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="E72" s="55"/>
-      <c r="F72" s="55" t="s">
+      <c r="E72" s="56"/>
+      <c r="F72" s="56" t="s">
         <v>92</v>
       </c>
       <c r="G72" s="0" t="s">
@@ -2995,92 +3016,92 @@
       <c r="I72" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="J72" s="57" t="n">
+      <c r="J72" s="58" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="55" t="s">
+      <c r="A73" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="B73" s="55" t="s">
+      <c r="B73" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C73" s="56" t="n">
+      <c r="C73" s="57" t="n">
         <v>0.5</v>
       </c>
-      <c r="D73" s="56" t="n">
+      <c r="D73" s="57" t="n">
         <v>0.5</v>
       </c>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55" t="s">
+      <c r="E73" s="56"/>
+      <c r="F73" s="56" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="55" t="s">
+      <c r="A74" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="B74" s="55" t="s">
+      <c r="B74" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="56" t="n">
+      <c r="C74" s="57" t="n">
         <v>1</v>
       </c>
-      <c r="D74" s="56" t="s">
+      <c r="D74" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="E74" s="55"/>
-      <c r="F74" s="55" t="s">
+      <c r="E74" s="56"/>
+      <c r="F74" s="56" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="55" t="s">
+      <c r="A75" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="B75" s="55" t="s">
+      <c r="B75" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C75" s="56" t="n">
+      <c r="C75" s="57" t="n">
         <v>1</v>
       </c>
-      <c r="D75" s="56" t="n">
+      <c r="D75" s="57" t="n">
         <v>1</v>
       </c>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55" t="s">
+      <c r="E75" s="56"/>
+      <c r="F75" s="56" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="55" t="s">
+      <c r="A76" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="B76" s="55" t="s">
+      <c r="B76" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C76" s="56" t="n">
+      <c r="C76" s="57" t="n">
         <v>0.5</v>
       </c>
-      <c r="D76" s="56" t="n">
+      <c r="D76" s="57" t="n">
         <v>0.25</v>
       </c>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55" t="s">
+      <c r="E76" s="56"/>
+      <c r="F76" s="56" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="78" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="58" t="s">
+      <c r="A78" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="B78" s="58"/>
-      <c r="C78" s="58"/>
-      <c r="D78" s="58"/>
-      <c r="E78" s="58"/>
-      <c r="F78" s="58"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
     </row>
     <row r="79" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="34" t="s">
@@ -3099,6 +3120,20 @@
       <c r="F79" s="34" t="s">
         <v>92</v>
       </c>
+      <c r="G79" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H79" s="14" t="n">
+        <f aca="false">SUM(D79,D81,D83,D84,D85,D86,D87,D88,D89,D90,D91,D92,D93,D94,D95,D96,D97,D98,D99,D100,D101,D102,D103,D104,D105,D106,D107)</f>
+        <v>89.5</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J79" s="1" t="n">
+        <f aca="false">SUM(C79:C107)</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="34" t="s">
@@ -3218,8 +3253,8 @@
       <c r="C86" s="59" t="n">
         <v>2</v>
       </c>
-      <c r="D86" s="59" t="s">
-        <v>155</v>
+      <c r="D86" s="59" t="n">
+        <v>2.5</v>
       </c>
       <c r="E86" s="60"/>
       <c r="F86" s="60" t="s">
@@ -3236,8 +3271,8 @@
       <c r="C87" s="59" t="n">
         <v>1.5</v>
       </c>
-      <c r="D87" s="59" t="s">
-        <v>155</v>
+      <c r="D87" s="59" t="n">
+        <v>2.5</v>
       </c>
       <c r="E87" s="60"/>
       <c r="F87" s="60" t="s">
@@ -3254,8 +3289,8 @@
       <c r="C88" s="59" t="n">
         <v>1.5</v>
       </c>
-      <c r="D88" s="59" t="s">
-        <v>155</v>
+      <c r="D88" s="59" t="n">
+        <v>2.5</v>
       </c>
       <c r="E88" s="60"/>
       <c r="F88" s="60" t="s">
@@ -3272,8 +3307,8 @@
       <c r="C89" s="59" t="n">
         <v>1.5</v>
       </c>
-      <c r="D89" s="59" t="s">
-        <v>155</v>
+      <c r="D89" s="59" t="n">
+        <v>2.5</v>
       </c>
       <c r="E89" s="60"/>
       <c r="F89" s="60" t="s">
@@ -3290,8 +3325,8 @@
       <c r="C90" s="59" t="n">
         <v>1.5</v>
       </c>
-      <c r="D90" s="59" t="s">
-        <v>155</v>
+      <c r="D90" s="59" t="n">
+        <v>2.5</v>
       </c>
       <c r="E90" s="60"/>
       <c r="F90" s="60" t="s">
@@ -3308,8 +3343,8 @@
       <c r="C91" s="59" t="n">
         <v>1.5</v>
       </c>
-      <c r="D91" s="59" t="s">
-        <v>155</v>
+      <c r="D91" s="59" t="n">
+        <v>2.5</v>
       </c>
       <c r="E91" s="60"/>
       <c r="F91" s="60" t="s">
@@ -3326,8 +3361,8 @@
       <c r="C92" s="59" t="n">
         <v>1.5</v>
       </c>
-      <c r="D92" s="59" t="s">
-        <v>155</v>
+      <c r="D92" s="59" t="n">
+        <v>2.5</v>
       </c>
       <c r="E92" s="60"/>
       <c r="F92" s="60" t="s">
@@ -3344,8 +3379,8 @@
       <c r="C93" s="59" t="n">
         <v>1.5</v>
       </c>
-      <c r="D93" s="59" t="s">
-        <v>155</v>
+      <c r="D93" s="59" t="n">
+        <v>2.5</v>
       </c>
       <c r="E93" s="60"/>
       <c r="F93" s="60" t="s">
@@ -3362,8 +3397,8 @@
       <c r="C94" s="59" t="n">
         <v>1.5</v>
       </c>
-      <c r="D94" s="59" t="s">
-        <v>155</v>
+      <c r="D94" s="59" t="n">
+        <v>2.5</v>
       </c>
       <c r="E94" s="60"/>
       <c r="F94" s="60" t="s">
@@ -3380,8 +3415,8 @@
       <c r="C95" s="59" t="n">
         <v>1.5</v>
       </c>
-      <c r="D95" s="59" t="s">
-        <v>155</v>
+      <c r="D95" s="59" t="n">
+        <v>2.5</v>
       </c>
       <c r="E95" s="60"/>
       <c r="F95" s="60" t="s">
@@ -3398,8 +3433,8 @@
       <c r="C96" s="59" t="n">
         <v>1.5</v>
       </c>
-      <c r="D96" s="59" t="s">
-        <v>155</v>
+      <c r="D96" s="59" t="n">
+        <v>2.5</v>
       </c>
       <c r="E96" s="60"/>
       <c r="F96" s="60" t="s">
@@ -3416,8 +3451,8 @@
       <c r="C97" s="59" t="n">
         <v>1.5</v>
       </c>
-      <c r="D97" s="59" t="s">
-        <v>155</v>
+      <c r="D97" s="59" t="n">
+        <v>2.5</v>
       </c>
       <c r="E97" s="60"/>
       <c r="F97" s="60" t="s">
@@ -3452,8 +3487,8 @@
       <c r="C99" s="59" t="n">
         <v>1.5</v>
       </c>
-      <c r="D99" s="59" t="s">
-        <v>155</v>
+      <c r="D99" s="59" t="n">
+        <v>2.5</v>
       </c>
       <c r="E99" s="60"/>
       <c r="F99" s="60" t="s">
@@ -3470,8 +3505,8 @@
       <c r="C100" s="59" t="n">
         <v>1.5</v>
       </c>
-      <c r="D100" s="59" t="s">
-        <v>155</v>
+      <c r="D100" s="59" t="n">
+        <v>2.5</v>
       </c>
       <c r="E100" s="60"/>
       <c r="F100" s="60" t="s">
@@ -3488,8 +3523,8 @@
       <c r="C101" s="59" t="n">
         <v>1.5</v>
       </c>
-      <c r="D101" s="59" t="s">
-        <v>155</v>
+      <c r="D101" s="59" t="n">
+        <v>2.5</v>
       </c>
       <c r="E101" s="60"/>
       <c r="F101" s="60" t="s">
@@ -3506,8 +3541,8 @@
       <c r="C102" s="59" t="n">
         <v>1.5</v>
       </c>
-      <c r="D102" s="59" t="s">
-        <v>155</v>
+      <c r="D102" s="59" t="n">
+        <v>2.5</v>
       </c>
       <c r="E102" s="60"/>
       <c r="F102" s="60" t="s">
@@ -3524,8 +3559,8 @@
       <c r="C103" s="59" t="n">
         <v>1.5</v>
       </c>
-      <c r="D103" s="59" t="s">
-        <v>155</v>
+      <c r="D103" s="59" t="n">
+        <v>2.5</v>
       </c>
       <c r="E103" s="60"/>
       <c r="F103" s="60" t="s">
@@ -3542,8 +3577,8 @@
       <c r="C104" s="59" t="n">
         <v>1.5</v>
       </c>
-      <c r="D104" s="59" t="s">
-        <v>155</v>
+      <c r="D104" s="59" t="n">
+        <v>2.5</v>
       </c>
       <c r="E104" s="60"/>
       <c r="F104" s="60" t="s">
@@ -3560,8 +3595,8 @@
       <c r="C105" s="59" t="n">
         <v>1.5</v>
       </c>
-      <c r="D105" s="59" t="s">
-        <v>155</v>
+      <c r="D105" s="59" t="n">
+        <v>2.5</v>
       </c>
       <c r="E105" s="60"/>
       <c r="F105" s="60" t="s">
@@ -3578,8 +3613,8 @@
       <c r="C106" s="59" t="n">
         <v>1.5</v>
       </c>
-      <c r="D106" s="59" t="s">
-        <v>155</v>
+      <c r="D106" s="59" t="n">
+        <v>2.5</v>
       </c>
       <c r="E106" s="60"/>
       <c r="F106" s="60" t="s">
@@ -3596,16 +3631,112 @@
       <c r="C107" s="59" t="n">
         <v>1</v>
       </c>
-      <c r="D107" s="59" t="s">
-        <v>155</v>
+      <c r="D107" s="59" t="n">
+        <v>2.5</v>
       </c>
       <c r="E107" s="60"/>
       <c r="F107" s="60" t="s">
         <v>92</v>
       </c>
     </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108" s="28"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H108" s="14" t="n">
+        <f aca="false">SUM(D109:D112)</f>
+        <v>12</v>
+      </c>
+      <c r="I108" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J108" s="1" t="n">
+        <f aca="false">SUM(C109:C112)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C109" s="49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D109" s="49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B110" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C110" s="49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D110" s="49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E110" s="34"/>
+      <c r="F110" s="34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C111" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="D111" s="49" t="n">
+        <v>7</v>
+      </c>
+      <c r="E111" s="34"/>
+      <c r="F111" s="34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="B112" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C112" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D112" s="49" t="n">
+        <v>4</v>
+      </c>
+      <c r="E112" s="34"/>
+      <c r="F112" s="34" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A12:F12"/>
@@ -3618,6 +3749,7 @@
     <mergeCell ref="A66:F66"/>
     <mergeCell ref="A71:F71"/>
     <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A108:F108"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
